--- a/Gantt/DHAIMI_Vincent_Diagramme_de_Gantt_Plannification.xlsx
+++ b/Gantt/DHAIMI_Vincent_Diagramme_de_Gantt_Plannification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{D16B44E8-0F38-497B-96C8-5848F0BF4240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{367D2A9B-D4FC-4F74-9D12-A8D890BBF79D}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="8_{D16B44E8-0F38-497B-96C8-5848F0BF4240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5AB2C35-22C4-466A-B401-0B56FED3C04E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -116,9 +116,6 @@
     <t>TÂCHE</t>
   </si>
   <si>
-    <t>Tâche 5</t>
-  </si>
-  <si>
     <t>Insérez les nouvelle lignes au-dessus de celle-ci.</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
   </si>
   <si>
     <t>DÉBUT</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>FIN</t>
@@ -785,7 +779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1174,6 +1168,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1246,7 +1266,7 @@
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1474,9 +1494,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="49" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="49" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="49" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="49" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="49" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="50" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="50" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="50" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="50" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1498,16 +1572,22 @@
     <xf numFmtId="0" fontId="0" fillId="45" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
@@ -1516,15 +1596,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1534,82 +1605,52 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="49" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="49" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="49" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="49" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="49" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="50" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="50" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="50" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="50" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1669,67 +1710,7 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <border>
         <left style="thin">
@@ -1868,15 +1849,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstColumn" dxfId="14"/>
-      <tableStyleElement type="lastColumn" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="totalRow" dxfId="10"/>
+      <tableStyleElement type="firstColumn" dxfId="9"/>
+      <tableStyleElement type="lastColumn" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2238,11 +2219,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:DB42"/>
+  <dimension ref="A1:DB41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="77" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R34" sqref="R34"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="53" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BK33" sqref="BK8:BL33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2263,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2271,7 +2252,7 @@
       <c r="F1" s="28"/>
       <c r="H1" s="2"/>
       <c r="I1" s="44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2279,10 +2260,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:106" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2290,172 +2271,172 @@
         <v>2</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="101">
+        <v>45</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="114"/>
+      <c r="E3" s="112">
         <f>DATE(2024,2,12)</f>
         <v>45334</v>
       </c>
-      <c r="F3" s="101"/>
+      <c r="F3" s="112"/>
     </row>
     <row r="4" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="94"/>
+        <v>46</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="114"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="108">
         <f>I5</f>
         <v>45334</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="108">
         <f>P5</f>
         <v>45341</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="108">
         <f>W5</f>
         <v>45348</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="108">
         <f>AD5</f>
         <v>45355</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="108">
         <f>AK5</f>
         <v>45362</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="109"/>
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="109"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="108">
         <f>AR5</f>
         <v>45369</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="108">
         <f>AY5</f>
         <v>45376</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="109"/>
+      <c r="BE4" s="110"/>
+      <c r="BF4" s="108">
         <f>BF5</f>
         <v>45383</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
-      <c r="BM4" s="95">
+      <c r="BG4" s="109"/>
+      <c r="BH4" s="109"/>
+      <c r="BI4" s="109"/>
+      <c r="BJ4" s="109"/>
+      <c r="BK4" s="109"/>
+      <c r="BL4" s="110"/>
+      <c r="BM4" s="108">
         <f>BM5</f>
         <v>45390</v>
       </c>
-      <c r="BN4" s="96"/>
-      <c r="BO4" s="96"/>
-      <c r="BP4" s="96"/>
-      <c r="BQ4" s="96"/>
-      <c r="BR4" s="96"/>
-      <c r="BS4" s="97"/>
-      <c r="BT4" s="95">
+      <c r="BN4" s="109"/>
+      <c r="BO4" s="109"/>
+      <c r="BP4" s="109"/>
+      <c r="BQ4" s="109"/>
+      <c r="BR4" s="109"/>
+      <c r="BS4" s="110"/>
+      <c r="BT4" s="108">
         <f>BT5</f>
         <v>45397</v>
       </c>
-      <c r="BU4" s="96"/>
-      <c r="BV4" s="96"/>
-      <c r="BW4" s="96"/>
-      <c r="BX4" s="96"/>
-      <c r="BY4" s="96"/>
-      <c r="BZ4" s="97"/>
-      <c r="CA4" s="95">
+      <c r="BU4" s="109"/>
+      <c r="BV4" s="109"/>
+      <c r="BW4" s="109"/>
+      <c r="BX4" s="109"/>
+      <c r="BY4" s="109"/>
+      <c r="BZ4" s="110"/>
+      <c r="CA4" s="108">
         <f>CA5</f>
         <v>45404</v>
       </c>
-      <c r="CB4" s="96"/>
-      <c r="CC4" s="96"/>
-      <c r="CD4" s="96"/>
-      <c r="CE4" s="96"/>
-      <c r="CF4" s="96"/>
-      <c r="CG4" s="97"/>
-      <c r="CH4" s="95">
+      <c r="CB4" s="109"/>
+      <c r="CC4" s="109"/>
+      <c r="CD4" s="109"/>
+      <c r="CE4" s="109"/>
+      <c r="CF4" s="109"/>
+      <c r="CG4" s="110"/>
+      <c r="CH4" s="108">
         <f>CH5</f>
         <v>45411</v>
       </c>
-      <c r="CI4" s="96"/>
-      <c r="CJ4" s="96"/>
-      <c r="CK4" s="96"/>
-      <c r="CL4" s="96"/>
-      <c r="CM4" s="96"/>
-      <c r="CN4" s="97"/>
-      <c r="CO4" s="95">
+      <c r="CI4" s="109"/>
+      <c r="CJ4" s="109"/>
+      <c r="CK4" s="109"/>
+      <c r="CL4" s="109"/>
+      <c r="CM4" s="109"/>
+      <c r="CN4" s="110"/>
+      <c r="CO4" s="108">
         <f>CO5</f>
         <v>45418</v>
       </c>
-      <c r="CP4" s="96"/>
-      <c r="CQ4" s="96"/>
-      <c r="CR4" s="96"/>
-      <c r="CS4" s="96"/>
-      <c r="CT4" s="96"/>
-      <c r="CU4" s="97"/>
-      <c r="CV4" s="95">
+      <c r="CP4" s="109"/>
+      <c r="CQ4" s="109"/>
+      <c r="CR4" s="109"/>
+      <c r="CS4" s="109"/>
+      <c r="CT4" s="109"/>
+      <c r="CU4" s="110"/>
+      <c r="CV4" s="108">
         <f>CV5</f>
         <v>45425</v>
       </c>
-      <c r="CW4" s="96"/>
-      <c r="CX4" s="96"/>
-      <c r="CY4" s="96"/>
-      <c r="CZ4" s="96"/>
-      <c r="DA4" s="96"/>
-      <c r="DB4" s="97"/>
+      <c r="CW4" s="109"/>
+      <c r="CX4" s="109"/>
+      <c r="CY4" s="109"/>
+      <c r="CZ4" s="109"/>
+      <c r="DA4" s="109"/>
+      <c r="DB4" s="110"/>
     </row>
     <row r="5" spans="1:106" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
@@ -2869,17 +2850,17 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6:AN6" si="33">LEFT(TEXT(I5,"jjj"),1)</f>
@@ -3338,8 +3319,8 @@
       <c r="BH7" s="63"/>
       <c r="BI7" s="63"/>
       <c r="BJ7" s="63"/>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="63"/>
+      <c r="BK7" s="132"/>
+      <c r="BL7" s="133"/>
       <c r="BM7" s="63"/>
       <c r="BN7" s="63"/>
       <c r="BO7" s="63"/>
@@ -3388,119 +3369,119 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="14"/>
       <c r="E8" s="46"/>
       <c r="F8" s="47"/>
-      <c r="G8" s="113"/>
+      <c r="G8" s="95"/>
       <c r="H8" s="64"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="84"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="118"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="118"/>
+      <c r="AA8" s="118"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="102"/>
       <c r="AD8" s="64"/>
       <c r="AE8" s="64"/>
       <c r="AF8" s="64"/>
       <c r="AG8" s="64"/>
       <c r="AH8" s="64"/>
-      <c r="AI8" s="83"/>
-      <c r="AJ8" s="84"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="102"/>
       <c r="AK8" s="64"/>
       <c r="AL8" s="64"/>
       <c r="AM8" s="64"/>
       <c r="AN8" s="64"/>
       <c r="AO8" s="64"/>
-      <c r="AP8" s="83"/>
-      <c r="AQ8" s="84"/>
+      <c r="AP8" s="101"/>
+      <c r="AQ8" s="102"/>
       <c r="AR8" s="64"/>
       <c r="AS8" s="64"/>
       <c r="AT8" s="64"/>
       <c r="AU8" s="64"/>
       <c r="AV8" s="64"/>
-      <c r="AW8" s="83"/>
-      <c r="AX8" s="84"/>
+      <c r="AW8" s="101"/>
+      <c r="AX8" s="102"/>
       <c r="AY8" s="64"/>
       <c r="AZ8" s="64"/>
       <c r="BA8" s="64"/>
       <c r="BB8" s="64"/>
       <c r="BC8" s="64"/>
-      <c r="BD8" s="102"/>
-      <c r="BE8" s="102"/>
+      <c r="BD8" s="111"/>
+      <c r="BE8" s="111"/>
       <c r="BF8" s="64"/>
       <c r="BG8" s="64"/>
       <c r="BH8" s="64"/>
       <c r="BI8" s="64"/>
       <c r="BJ8" s="64"/>
-      <c r="BK8" s="83"/>
-      <c r="BL8" s="84"/>
+      <c r="BK8" s="120"/>
+      <c r="BL8" s="126"/>
       <c r="BM8" s="64"/>
       <c r="BN8" s="64"/>
       <c r="BO8" s="64"/>
       <c r="BP8" s="64"/>
       <c r="BQ8" s="64"/>
-      <c r="BR8" s="83"/>
-      <c r="BS8" s="84"/>
+      <c r="BR8" s="120"/>
+      <c r="BS8" s="126"/>
       <c r="BT8" s="64"/>
       <c r="BU8" s="64"/>
       <c r="BV8" s="64"/>
       <c r="BW8" s="64"/>
       <c r="BX8" s="64"/>
-      <c r="BY8" s="83"/>
-      <c r="BZ8" s="84"/>
+      <c r="BY8" s="120"/>
+      <c r="BZ8" s="126"/>
       <c r="CA8" s="64"/>
       <c r="CB8" s="64"/>
       <c r="CC8" s="64"/>
       <c r="CD8" s="64"/>
       <c r="CE8" s="64"/>
-      <c r="CF8" s="83"/>
-      <c r="CG8" s="84"/>
+      <c r="CF8" s="120"/>
+      <c r="CG8" s="126"/>
       <c r="CH8" s="64"/>
       <c r="CI8" s="64"/>
       <c r="CJ8" s="64"/>
       <c r="CK8" s="64"/>
       <c r="CL8" s="64"/>
-      <c r="CM8" s="83"/>
-      <c r="CN8" s="84"/>
+      <c r="CM8" s="120"/>
+      <c r="CN8" s="126"/>
       <c r="CO8" s="64"/>
       <c r="CP8" s="64"/>
       <c r="CQ8" s="64"/>
       <c r="CR8" s="64"/>
       <c r="CS8" s="64"/>
-      <c r="CT8" s="83"/>
-      <c r="CU8" s="84"/>
+      <c r="CT8" s="120"/>
+      <c r="CU8" s="126"/>
       <c r="CV8" s="64"/>
       <c r="CW8" s="64"/>
       <c r="CX8" s="64"/>
       <c r="CY8" s="64"/>
       <c r="CZ8" s="64"/>
-      <c r="DA8" s="83"/>
-      <c r="DB8" s="106"/>
+      <c r="DA8" s="120"/>
+      <c r="DB8" s="121"/>
     </row>
     <row r="9" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="15"/>
@@ -3512,113 +3493,113 @@
         <f>E9+4</f>
         <v>45338</v>
       </c>
-      <c r="G9" s="114"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="84"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="102"/>
       <c r="P9" s="64"/>
       <c r="Q9" s="64"/>
       <c r="R9" s="64"/>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="84"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="102"/>
       <c r="W9" s="64"/>
       <c r="X9" s="64"/>
       <c r="Y9" s="64"/>
       <c r="Z9" s="64"/>
       <c r="AA9" s="64"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="86"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="104"/>
       <c r="AD9" s="64"/>
       <c r="AE9" s="64"/>
       <c r="AF9" s="64"/>
       <c r="AG9" s="64"/>
       <c r="AH9" s="64"/>
-      <c r="AI9" s="85"/>
-      <c r="AJ9" s="86"/>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="104"/>
       <c r="AK9" s="64"/>
       <c r="AL9" s="64"/>
       <c r="AM9" s="64"/>
       <c r="AN9" s="64"/>
       <c r="AO9" s="64"/>
-      <c r="AP9" s="85"/>
-      <c r="AQ9" s="86"/>
+      <c r="AP9" s="103"/>
+      <c r="AQ9" s="104"/>
       <c r="AR9" s="64"/>
       <c r="AS9" s="64"/>
       <c r="AT9" s="64"/>
       <c r="AU9" s="64"/>
       <c r="AV9" s="64"/>
-      <c r="AW9" s="85"/>
-      <c r="AX9" s="86"/>
+      <c r="AW9" s="103"/>
+      <c r="AX9" s="104"/>
       <c r="AY9" s="64"/>
       <c r="AZ9" s="64"/>
       <c r="BA9" s="64"/>
       <c r="BB9" s="64"/>
       <c r="BC9" s="64"/>
-      <c r="BD9" s="102"/>
-      <c r="BE9" s="102"/>
+      <c r="BD9" s="111"/>
+      <c r="BE9" s="111"/>
       <c r="BF9" s="64"/>
       <c r="BG9" s="64"/>
       <c r="BH9" s="64"/>
       <c r="BI9" s="64"/>
       <c r="BJ9" s="64"/>
-      <c r="BK9" s="85"/>
-      <c r="BL9" s="86"/>
+      <c r="BK9" s="122"/>
+      <c r="BL9" s="127"/>
       <c r="BM9" s="64"/>
       <c r="BN9" s="64"/>
       <c r="BO9" s="64"/>
       <c r="BP9" s="64"/>
       <c r="BQ9" s="64"/>
-      <c r="BR9" s="85"/>
-      <c r="BS9" s="86"/>
+      <c r="BR9" s="122"/>
+      <c r="BS9" s="127"/>
       <c r="BT9" s="64"/>
       <c r="BU9" s="64"/>
       <c r="BV9" s="64"/>
       <c r="BW9" s="64"/>
       <c r="BX9" s="64"/>
-      <c r="BY9" s="85"/>
-      <c r="BZ9" s="86"/>
+      <c r="BY9" s="122"/>
+      <c r="BZ9" s="127"/>
       <c r="CA9" s="64"/>
       <c r="CB9" s="64"/>
       <c r="CC9" s="64"/>
       <c r="CD9" s="64"/>
       <c r="CE9" s="64"/>
-      <c r="CF9" s="85"/>
-      <c r="CG9" s="86"/>
+      <c r="CF9" s="122"/>
+      <c r="CG9" s="127"/>
       <c r="CH9" s="64"/>
       <c r="CI9" s="64"/>
       <c r="CJ9" s="64"/>
       <c r="CK9" s="64"/>
       <c r="CL9" s="64"/>
-      <c r="CM9" s="85"/>
-      <c r="CN9" s="86"/>
+      <c r="CM9" s="122"/>
+      <c r="CN9" s="127"/>
       <c r="CO9" s="64"/>
       <c r="CP9" s="64"/>
       <c r="CQ9" s="64"/>
       <c r="CR9" s="64"/>
       <c r="CS9" s="64"/>
-      <c r="CT9" s="85"/>
-      <c r="CU9" s="86"/>
+      <c r="CT9" s="122"/>
+      <c r="CU9" s="127"/>
       <c r="CV9" s="64"/>
       <c r="CW9" s="64"/>
       <c r="CX9" s="64"/>
       <c r="CY9" s="64"/>
       <c r="CZ9" s="64"/>
-      <c r="DA9" s="85"/>
-      <c r="DB9" s="107"/>
+      <c r="DA9" s="122"/>
+      <c r="DB9" s="123"/>
     </row>
     <row r="10" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="15"/>
@@ -3630,111 +3611,111 @@
         <f>E10+4</f>
         <v>45338</v>
       </c>
-      <c r="G10" s="114"/>
+      <c r="G10" s="96"/>
       <c r="H10" s="64"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="86"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="104"/>
       <c r="P10" s="64"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="64"/>
       <c r="S10" s="64"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="86"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="104"/>
       <c r="W10" s="64"/>
       <c r="X10" s="64"/>
       <c r="Y10" s="64"/>
       <c r="Z10" s="64"/>
       <c r="AA10" s="64"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="86"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="104"/>
       <c r="AD10" s="64"/>
       <c r="AE10" s="64"/>
       <c r="AF10" s="64"/>
       <c r="AG10" s="64"/>
       <c r="AH10" s="64"/>
-      <c r="AI10" s="85"/>
-      <c r="AJ10" s="86"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="104"/>
       <c r="AK10" s="64"/>
       <c r="AL10" s="64"/>
       <c r="AM10" s="64"/>
       <c r="AN10" s="64"/>
       <c r="AO10" s="64"/>
-      <c r="AP10" s="85"/>
-      <c r="AQ10" s="86"/>
+      <c r="AP10" s="103"/>
+      <c r="AQ10" s="104"/>
       <c r="AR10" s="64"/>
       <c r="AS10" s="64"/>
       <c r="AT10" s="64"/>
       <c r="AU10" s="64"/>
       <c r="AV10" s="64"/>
-      <c r="AW10" s="85"/>
-      <c r="AX10" s="86"/>
+      <c r="AW10" s="103"/>
+      <c r="AX10" s="104"/>
       <c r="AY10" s="64"/>
       <c r="AZ10" s="64"/>
       <c r="BA10" s="64"/>
       <c r="BB10" s="64"/>
       <c r="BC10" s="64"/>
-      <c r="BD10" s="102"/>
-      <c r="BE10" s="102"/>
+      <c r="BD10" s="111"/>
+      <c r="BE10" s="111"/>
       <c r="BF10" s="64"/>
       <c r="BG10" s="64"/>
       <c r="BH10" s="64"/>
       <c r="BI10" s="64"/>
       <c r="BJ10" s="64"/>
-      <c r="BK10" s="85"/>
-      <c r="BL10" s="86"/>
+      <c r="BK10" s="122"/>
+      <c r="BL10" s="127"/>
       <c r="BM10" s="64"/>
       <c r="BN10" s="64"/>
       <c r="BO10" s="64"/>
       <c r="BP10" s="64"/>
       <c r="BQ10" s="64"/>
-      <c r="BR10" s="85"/>
-      <c r="BS10" s="86"/>
+      <c r="BR10" s="122"/>
+      <c r="BS10" s="127"/>
       <c r="BT10" s="64"/>
       <c r="BU10" s="64"/>
       <c r="BV10" s="64"/>
       <c r="BW10" s="64"/>
       <c r="BX10" s="64"/>
-      <c r="BY10" s="85"/>
-      <c r="BZ10" s="86"/>
+      <c r="BY10" s="122"/>
+      <c r="BZ10" s="127"/>
       <c r="CA10" s="64"/>
       <c r="CB10" s="64"/>
       <c r="CC10" s="64"/>
       <c r="CD10" s="64"/>
       <c r="CE10" s="64"/>
-      <c r="CF10" s="85"/>
-      <c r="CG10" s="86"/>
+      <c r="CF10" s="122"/>
+      <c r="CG10" s="127"/>
       <c r="CH10" s="64"/>
       <c r="CI10" s="64"/>
       <c r="CJ10" s="64"/>
       <c r="CK10" s="64"/>
       <c r="CL10" s="64"/>
-      <c r="CM10" s="85"/>
-      <c r="CN10" s="86"/>
+      <c r="CM10" s="122"/>
+      <c r="CN10" s="127"/>
       <c r="CO10" s="64"/>
       <c r="CP10" s="64"/>
       <c r="CQ10" s="64"/>
       <c r="CR10" s="64"/>
       <c r="CS10" s="64"/>
-      <c r="CT10" s="85"/>
-      <c r="CU10" s="86"/>
+      <c r="CT10" s="122"/>
+      <c r="CU10" s="127"/>
       <c r="CV10" s="64"/>
       <c r="CW10" s="64"/>
       <c r="CX10" s="64"/>
       <c r="CY10" s="64"/>
       <c r="CZ10" s="64"/>
-      <c r="DA10" s="85"/>
-      <c r="DB10" s="107"/>
+      <c r="DA10" s="122"/>
+      <c r="DB10" s="123"/>
     </row>
     <row r="11" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="15"/>
@@ -3746,111 +3727,111 @@
         <f>R5</f>
         <v>45343</v>
       </c>
-      <c r="G11" s="114"/>
+      <c r="G11" s="96"/>
       <c r="H11" s="64"/>
       <c r="I11" s="64"/>
       <c r="J11" s="64"/>
       <c r="K11" s="64"/>
       <c r="L11" s="64"/>
       <c r="M11" s="64"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="82"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="100"/>
       <c r="S11" s="64"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="86"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="104"/>
       <c r="W11" s="64"/>
       <c r="X11" s="64"/>
       <c r="Y11" s="64"/>
       <c r="Z11" s="64"/>
       <c r="AA11" s="64"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="86"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="104"/>
       <c r="AD11" s="64"/>
       <c r="AE11" s="64"/>
       <c r="AF11" s="64"/>
       <c r="AG11" s="64"/>
       <c r="AH11" s="64"/>
-      <c r="AI11" s="85"/>
-      <c r="AJ11" s="86"/>
+      <c r="AI11" s="103"/>
+      <c r="AJ11" s="104"/>
       <c r="AK11" s="64"/>
       <c r="AL11" s="64"/>
       <c r="AM11" s="64"/>
       <c r="AN11" s="64"/>
       <c r="AO11" s="64"/>
-      <c r="AP11" s="85"/>
-      <c r="AQ11" s="86"/>
+      <c r="AP11" s="103"/>
+      <c r="AQ11" s="104"/>
       <c r="AR11" s="64"/>
       <c r="AS11" s="64"/>
       <c r="AT11" s="64"/>
       <c r="AU11" s="64"/>
       <c r="AV11" s="64"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="86"/>
+      <c r="AW11" s="103"/>
+      <c r="AX11" s="104"/>
       <c r="AY11" s="64"/>
       <c r="AZ11" s="64"/>
       <c r="BA11" s="64"/>
       <c r="BB11" s="64"/>
       <c r="BC11" s="64"/>
-      <c r="BD11" s="102"/>
-      <c r="BE11" s="102"/>
+      <c r="BD11" s="111"/>
+      <c r="BE11" s="111"/>
       <c r="BF11" s="64"/>
       <c r="BG11" s="64"/>
       <c r="BH11" s="64"/>
       <c r="BI11" s="64"/>
       <c r="BJ11" s="64"/>
-      <c r="BK11" s="85"/>
-      <c r="BL11" s="86"/>
+      <c r="BK11" s="122"/>
+      <c r="BL11" s="127"/>
       <c r="BM11" s="64"/>
       <c r="BN11" s="64"/>
       <c r="BO11" s="64"/>
       <c r="BP11" s="64"/>
       <c r="BQ11" s="64"/>
-      <c r="BR11" s="85"/>
-      <c r="BS11" s="86"/>
+      <c r="BR11" s="122"/>
+      <c r="BS11" s="127"/>
       <c r="BT11" s="64"/>
       <c r="BU11" s="64"/>
       <c r="BV11" s="64"/>
       <c r="BW11" s="64"/>
       <c r="BX11" s="64"/>
-      <c r="BY11" s="85"/>
-      <c r="BZ11" s="86"/>
+      <c r="BY11" s="122"/>
+      <c r="BZ11" s="127"/>
       <c r="CA11" s="64"/>
       <c r="CB11" s="64"/>
       <c r="CC11" s="64"/>
       <c r="CD11" s="64"/>
       <c r="CE11" s="64"/>
-      <c r="CF11" s="85"/>
-      <c r="CG11" s="86"/>
+      <c r="CF11" s="122"/>
+      <c r="CG11" s="127"/>
       <c r="CH11" s="64"/>
       <c r="CI11" s="64"/>
       <c r="CJ11" s="64"/>
       <c r="CK11" s="64"/>
       <c r="CL11" s="64"/>
-      <c r="CM11" s="85"/>
-      <c r="CN11" s="86"/>
+      <c r="CM11" s="122"/>
+      <c r="CN11" s="127"/>
       <c r="CO11" s="64"/>
       <c r="CP11" s="64"/>
       <c r="CQ11" s="64"/>
       <c r="CR11" s="64"/>
       <c r="CS11" s="64"/>
-      <c r="CT11" s="85"/>
-      <c r="CU11" s="86"/>
+      <c r="CT11" s="122"/>
+      <c r="CU11" s="127"/>
       <c r="CV11" s="64"/>
       <c r="CW11" s="64"/>
       <c r="CX11" s="64"/>
       <c r="CY11" s="64"/>
       <c r="CZ11" s="64"/>
-      <c r="DA11" s="85"/>
-      <c r="DB11" s="107"/>
+      <c r="DA11" s="122"/>
+      <c r="DB11" s="123"/>
     </row>
     <row r="12" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="15"/>
@@ -3862,111 +3843,111 @@
         <f>W5</f>
         <v>45348</v>
       </c>
-      <c r="G12" s="114"/>
+      <c r="G12" s="96"/>
       <c r="H12" s="64"/>
       <c r="I12" s="64"/>
       <c r="J12" s="64"/>
       <c r="K12" s="64"/>
       <c r="L12" s="64"/>
       <c r="M12" s="64"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="86"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="104"/>
       <c r="P12" s="64"/>
       <c r="Q12" s="64"/>
       <c r="R12" s="72"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="86"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="104"/>
       <c r="W12" s="75"/>
       <c r="X12" s="64"/>
       <c r="Y12" s="64"/>
       <c r="Z12" s="64"/>
       <c r="AA12" s="64"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="86"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="104"/>
       <c r="AD12" s="64"/>
       <c r="AE12" s="64"/>
       <c r="AF12" s="64"/>
       <c r="AG12" s="64"/>
       <c r="AH12" s="64"/>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="86"/>
+      <c r="AI12" s="103"/>
+      <c r="AJ12" s="104"/>
       <c r="AK12" s="64"/>
       <c r="AL12" s="64"/>
       <c r="AM12" s="64"/>
       <c r="AN12" s="64"/>
       <c r="AO12" s="64"/>
-      <c r="AP12" s="85"/>
-      <c r="AQ12" s="86"/>
+      <c r="AP12" s="103"/>
+      <c r="AQ12" s="104"/>
       <c r="AR12" s="64"/>
       <c r="AS12" s="64"/>
       <c r="AT12" s="64"/>
       <c r="AU12" s="64"/>
       <c r="AV12" s="64"/>
-      <c r="AW12" s="85"/>
-      <c r="AX12" s="86"/>
+      <c r="AW12" s="103"/>
+      <c r="AX12" s="104"/>
       <c r="AY12" s="64"/>
       <c r="AZ12" s="64"/>
       <c r="BA12" s="64"/>
       <c r="BB12" s="64"/>
       <c r="BC12" s="64"/>
-      <c r="BD12" s="102"/>
-      <c r="BE12" s="102"/>
+      <c r="BD12" s="111"/>
+      <c r="BE12" s="111"/>
       <c r="BF12" s="64"/>
       <c r="BG12" s="64"/>
       <c r="BH12" s="64"/>
       <c r="BI12" s="64"/>
       <c r="BJ12" s="64"/>
-      <c r="BK12" s="85"/>
-      <c r="BL12" s="86"/>
+      <c r="BK12" s="122"/>
+      <c r="BL12" s="127"/>
       <c r="BM12" s="64"/>
       <c r="BN12" s="64"/>
       <c r="BO12" s="64"/>
       <c r="BP12" s="64"/>
       <c r="BQ12" s="64"/>
-      <c r="BR12" s="85"/>
-      <c r="BS12" s="86"/>
+      <c r="BR12" s="122"/>
+      <c r="BS12" s="127"/>
       <c r="BT12" s="64"/>
       <c r="BU12" s="64"/>
       <c r="BV12" s="64"/>
       <c r="BW12" s="64"/>
       <c r="BX12" s="64"/>
-      <c r="BY12" s="85"/>
-      <c r="BZ12" s="86"/>
+      <c r="BY12" s="122"/>
+      <c r="BZ12" s="127"/>
       <c r="CA12" s="64"/>
       <c r="CB12" s="64"/>
       <c r="CC12" s="64"/>
       <c r="CD12" s="64"/>
       <c r="CE12" s="64"/>
-      <c r="CF12" s="85"/>
-      <c r="CG12" s="86"/>
+      <c r="CF12" s="122"/>
+      <c r="CG12" s="127"/>
       <c r="CH12" s="64"/>
       <c r="CI12" s="64"/>
       <c r="CJ12" s="64"/>
       <c r="CK12" s="64"/>
       <c r="CL12" s="64"/>
-      <c r="CM12" s="85"/>
-      <c r="CN12" s="86"/>
+      <c r="CM12" s="122"/>
+      <c r="CN12" s="127"/>
       <c r="CO12" s="64"/>
       <c r="CP12" s="64"/>
       <c r="CQ12" s="64"/>
       <c r="CR12" s="64"/>
       <c r="CS12" s="64"/>
-      <c r="CT12" s="85"/>
-      <c r="CU12" s="86"/>
+      <c r="CT12" s="122"/>
+      <c r="CU12" s="127"/>
       <c r="CV12" s="64"/>
       <c r="CW12" s="64"/>
       <c r="CX12" s="64"/>
       <c r="CY12" s="64"/>
       <c r="CZ12" s="64"/>
-      <c r="DA12" s="85"/>
-      <c r="DB12" s="107"/>
+      <c r="DA12" s="122"/>
+      <c r="DB12" s="123"/>
     </row>
     <row r="13" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="71" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="15"/>
@@ -3978,225 +3959,225 @@
         <f>AA5</f>
         <v>45352</v>
       </c>
-      <c r="G13" s="115"/>
+      <c r="G13" s="97"/>
       <c r="H13" s="64"/>
       <c r="I13" s="64"/>
       <c r="J13" s="64"/>
       <c r="K13" s="64"/>
       <c r="L13" s="64"/>
       <c r="M13" s="64"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="88"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="106"/>
       <c r="P13" s="64"/>
       <c r="Q13" s="64"/>
       <c r="R13" s="64"/>
       <c r="S13" s="64"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="86"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="104"/>
       <c r="W13" s="73"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="86"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="100"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="104"/>
       <c r="AD13" s="64"/>
       <c r="AE13" s="64"/>
       <c r="AF13" s="64"/>
       <c r="AG13" s="64"/>
       <c r="AH13" s="64"/>
-      <c r="AI13" s="85"/>
-      <c r="AJ13" s="86"/>
+      <c r="AI13" s="103"/>
+      <c r="AJ13" s="104"/>
       <c r="AK13" s="64"/>
       <c r="AL13" s="64"/>
       <c r="AM13" s="64"/>
       <c r="AN13" s="64"/>
       <c r="AO13" s="64"/>
-      <c r="AP13" s="85"/>
-      <c r="AQ13" s="86"/>
+      <c r="AP13" s="103"/>
+      <c r="AQ13" s="104"/>
       <c r="AR13" s="64"/>
       <c r="AS13" s="64"/>
       <c r="AT13" s="64"/>
       <c r="AU13" s="64"/>
       <c r="AV13" s="64"/>
-      <c r="AW13" s="85"/>
-      <c r="AX13" s="86"/>
+      <c r="AW13" s="103"/>
+      <c r="AX13" s="104"/>
       <c r="AY13" s="64"/>
       <c r="AZ13" s="64"/>
       <c r="BA13" s="64"/>
       <c r="BB13" s="64"/>
       <c r="BC13" s="64"/>
-      <c r="BD13" s="102"/>
-      <c r="BE13" s="102"/>
+      <c r="BD13" s="111"/>
+      <c r="BE13" s="111"/>
       <c r="BF13" s="64"/>
       <c r="BG13" s="64"/>
       <c r="BH13" s="64"/>
       <c r="BI13" s="64"/>
       <c r="BJ13" s="64"/>
-      <c r="BK13" s="85"/>
-      <c r="BL13" s="86"/>
+      <c r="BK13" s="122"/>
+      <c r="BL13" s="127"/>
       <c r="BM13" s="64"/>
       <c r="BN13" s="64"/>
       <c r="BO13" s="64"/>
       <c r="BP13" s="64"/>
       <c r="BQ13" s="64"/>
-      <c r="BR13" s="85"/>
-      <c r="BS13" s="86"/>
+      <c r="BR13" s="122"/>
+      <c r="BS13" s="127"/>
       <c r="BT13" s="64"/>
       <c r="BU13" s="64"/>
       <c r="BV13" s="64"/>
       <c r="BW13" s="64"/>
       <c r="BX13" s="64"/>
-      <c r="BY13" s="85"/>
-      <c r="BZ13" s="86"/>
+      <c r="BY13" s="122"/>
+      <c r="BZ13" s="127"/>
       <c r="CA13" s="64"/>
       <c r="CB13" s="64"/>
       <c r="CC13" s="64"/>
       <c r="CD13" s="64"/>
       <c r="CE13" s="64"/>
-      <c r="CF13" s="85"/>
-      <c r="CG13" s="86"/>
+      <c r="CF13" s="122"/>
+      <c r="CG13" s="127"/>
       <c r="CH13" s="64"/>
       <c r="CI13" s="64"/>
       <c r="CJ13" s="64"/>
       <c r="CK13" s="64"/>
       <c r="CL13" s="64"/>
-      <c r="CM13" s="85"/>
-      <c r="CN13" s="86"/>
+      <c r="CM13" s="122"/>
+      <c r="CN13" s="127"/>
       <c r="CO13" s="64"/>
       <c r="CP13" s="64"/>
       <c r="CQ13" s="64"/>
       <c r="CR13" s="64"/>
       <c r="CS13" s="64"/>
-      <c r="CT13" s="85"/>
-      <c r="CU13" s="86"/>
+      <c r="CT13" s="122"/>
+      <c r="CU13" s="127"/>
       <c r="CV13" s="64"/>
       <c r="CW13" s="64"/>
       <c r="CX13" s="64"/>
       <c r="CY13" s="64"/>
       <c r="CZ13" s="64"/>
-      <c r="DA13" s="85"/>
-      <c r="DB13" s="107"/>
+      <c r="DA13" s="122"/>
+      <c r="DB13" s="123"/>
     </row>
     <row r="14" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="50"/>
-      <c r="G14" s="113"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="64"/>
       <c r="I14" s="64"/>
       <c r="J14" s="64"/>
       <c r="K14" s="64"/>
       <c r="L14" s="64"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="86"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="104"/>
       <c r="W14" s="64"/>
       <c r="X14" s="64"/>
       <c r="Y14" s="64"/>
       <c r="Z14" s="64"/>
       <c r="AA14" s="64"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="86"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="104"/>
       <c r="AD14" s="64"/>
       <c r="AE14" s="64"/>
       <c r="AF14" s="64"/>
       <c r="AG14" s="64"/>
       <c r="AH14" s="64"/>
-      <c r="AI14" s="85"/>
-      <c r="AJ14" s="86"/>
+      <c r="AI14" s="103"/>
+      <c r="AJ14" s="104"/>
       <c r="AK14" s="64"/>
       <c r="AL14" s="64"/>
       <c r="AM14" s="64"/>
       <c r="AN14" s="64"/>
       <c r="AO14" s="64"/>
-      <c r="AP14" s="85"/>
-      <c r="AQ14" s="86"/>
+      <c r="AP14" s="103"/>
+      <c r="AQ14" s="104"/>
       <c r="AR14" s="64"/>
       <c r="AS14" s="64"/>
       <c r="AT14" s="64"/>
       <c r="AU14" s="64"/>
       <c r="AV14" s="64"/>
-      <c r="AW14" s="85"/>
-      <c r="AX14" s="86"/>
+      <c r="AW14" s="103"/>
+      <c r="AX14" s="104"/>
       <c r="AY14" s="64"/>
       <c r="AZ14" s="64"/>
       <c r="BA14" s="64"/>
       <c r="BB14" s="64"/>
       <c r="BC14" s="64"/>
-      <c r="BD14" s="102"/>
-      <c r="BE14" s="102"/>
+      <c r="BD14" s="111"/>
+      <c r="BE14" s="111"/>
       <c r="BF14" s="64"/>
       <c r="BG14" s="64"/>
       <c r="BH14" s="64"/>
       <c r="BI14" s="64"/>
       <c r="BJ14" s="64"/>
-      <c r="BK14" s="85"/>
-      <c r="BL14" s="86"/>
+      <c r="BK14" s="122"/>
+      <c r="BL14" s="127"/>
       <c r="BM14" s="64"/>
       <c r="BN14" s="64"/>
       <c r="BO14" s="64"/>
       <c r="BP14" s="64"/>
       <c r="BQ14" s="64"/>
-      <c r="BR14" s="85"/>
-      <c r="BS14" s="86"/>
+      <c r="BR14" s="122"/>
+      <c r="BS14" s="127"/>
       <c r="BT14" s="64"/>
       <c r="BU14" s="64"/>
       <c r="BV14" s="64"/>
       <c r="BW14" s="64"/>
       <c r="BX14" s="64"/>
-      <c r="BY14" s="85"/>
-      <c r="BZ14" s="86"/>
+      <c r="BY14" s="122"/>
+      <c r="BZ14" s="127"/>
       <c r="CA14" s="64"/>
       <c r="CB14" s="64"/>
       <c r="CC14" s="64"/>
       <c r="CD14" s="64"/>
       <c r="CE14" s="64"/>
-      <c r="CF14" s="85"/>
-      <c r="CG14" s="86"/>
+      <c r="CF14" s="122"/>
+      <c r="CG14" s="127"/>
       <c r="CH14" s="64"/>
       <c r="CI14" s="64"/>
       <c r="CJ14" s="64"/>
       <c r="CK14" s="64"/>
       <c r="CL14" s="64"/>
-      <c r="CM14" s="85"/>
-      <c r="CN14" s="86"/>
+      <c r="CM14" s="122"/>
+      <c r="CN14" s="127"/>
       <c r="CO14" s="64"/>
       <c r="CP14" s="64"/>
       <c r="CQ14" s="64"/>
       <c r="CR14" s="64"/>
       <c r="CS14" s="64"/>
-      <c r="CT14" s="85"/>
-      <c r="CU14" s="86"/>
+      <c r="CT14" s="122"/>
+      <c r="CU14" s="127"/>
       <c r="CV14" s="64"/>
       <c r="CW14" s="64"/>
       <c r="CX14" s="64"/>
       <c r="CY14" s="64"/>
       <c r="CZ14" s="64"/>
-      <c r="DA14" s="85"/>
-      <c r="DB14" s="107"/>
+      <c r="DA14" s="122"/>
+      <c r="DB14" s="123"/>
     </row>
     <row r="15" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="18"/>
@@ -4208,111 +4189,111 @@
         <f>E15</f>
         <v>45338</v>
       </c>
-      <c r="G15" s="114"/>
+      <c r="G15" s="96"/>
       <c r="H15" s="64"/>
       <c r="I15" s="64"/>
       <c r="J15" s="64"/>
       <c r="K15" s="64"/>
       <c r="L15" s="64"/>
       <c r="M15" s="75"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="84"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="102"/>
       <c r="P15" s="64"/>
       <c r="Q15" s="64"/>
       <c r="R15" s="64"/>
       <c r="S15" s="64"/>
       <c r="T15" s="64"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="86"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="104"/>
       <c r="W15" s="64"/>
       <c r="X15" s="64"/>
       <c r="Y15" s="64"/>
       <c r="Z15" s="64"/>
       <c r="AA15" s="64"/>
-      <c r="AB15" s="85"/>
-      <c r="AC15" s="86"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="104"/>
       <c r="AD15" s="64"/>
       <c r="AE15" s="64"/>
       <c r="AF15" s="64"/>
       <c r="AG15" s="64"/>
       <c r="AH15" s="64"/>
-      <c r="AI15" s="85"/>
-      <c r="AJ15" s="86"/>
+      <c r="AI15" s="103"/>
+      <c r="AJ15" s="104"/>
       <c r="AK15" s="64"/>
       <c r="AL15" s="64"/>
       <c r="AM15" s="64"/>
       <c r="AN15" s="64"/>
       <c r="AO15" s="64"/>
-      <c r="AP15" s="85"/>
-      <c r="AQ15" s="86"/>
+      <c r="AP15" s="103"/>
+      <c r="AQ15" s="104"/>
       <c r="AR15" s="64"/>
       <c r="AS15" s="64"/>
       <c r="AT15" s="64"/>
       <c r="AU15" s="64"/>
       <c r="AV15" s="64"/>
-      <c r="AW15" s="85"/>
-      <c r="AX15" s="86"/>
+      <c r="AW15" s="103"/>
+      <c r="AX15" s="104"/>
       <c r="AY15" s="64"/>
       <c r="AZ15" s="64"/>
       <c r="BA15" s="64"/>
       <c r="BB15" s="64"/>
       <c r="BC15" s="64"/>
-      <c r="BD15" s="102"/>
-      <c r="BE15" s="102"/>
+      <c r="BD15" s="111"/>
+      <c r="BE15" s="111"/>
       <c r="BF15" s="64"/>
       <c r="BG15" s="64"/>
       <c r="BH15" s="64"/>
       <c r="BI15" s="64"/>
       <c r="BJ15" s="64"/>
-      <c r="BK15" s="85"/>
-      <c r="BL15" s="86"/>
+      <c r="BK15" s="122"/>
+      <c r="BL15" s="127"/>
       <c r="BM15" s="64"/>
       <c r="BN15" s="64"/>
       <c r="BO15" s="64"/>
       <c r="BP15" s="64"/>
       <c r="BQ15" s="64"/>
-      <c r="BR15" s="85"/>
-      <c r="BS15" s="86"/>
+      <c r="BR15" s="122"/>
+      <c r="BS15" s="127"/>
       <c r="BT15" s="64"/>
       <c r="BU15" s="64"/>
       <c r="BV15" s="64"/>
       <c r="BW15" s="64"/>
       <c r="BX15" s="64"/>
-      <c r="BY15" s="85"/>
-      <c r="BZ15" s="86"/>
+      <c r="BY15" s="122"/>
+      <c r="BZ15" s="127"/>
       <c r="CA15" s="64"/>
       <c r="CB15" s="64"/>
       <c r="CC15" s="64"/>
       <c r="CD15" s="64"/>
       <c r="CE15" s="64"/>
-      <c r="CF15" s="85"/>
-      <c r="CG15" s="86"/>
+      <c r="CF15" s="122"/>
+      <c r="CG15" s="127"/>
       <c r="CH15" s="64"/>
       <c r="CI15" s="64"/>
       <c r="CJ15" s="64"/>
       <c r="CK15" s="64"/>
       <c r="CL15" s="64"/>
-      <c r="CM15" s="85"/>
-      <c r="CN15" s="86"/>
+      <c r="CM15" s="122"/>
+      <c r="CN15" s="127"/>
       <c r="CO15" s="64"/>
       <c r="CP15" s="64"/>
       <c r="CQ15" s="64"/>
       <c r="CR15" s="64"/>
       <c r="CS15" s="64"/>
-      <c r="CT15" s="85"/>
-      <c r="CU15" s="86"/>
+      <c r="CT15" s="122"/>
+      <c r="CU15" s="127"/>
       <c r="CV15" s="64"/>
       <c r="CW15" s="64"/>
       <c r="CX15" s="64"/>
       <c r="CY15" s="64"/>
       <c r="CZ15" s="64"/>
-      <c r="DA15" s="85"/>
-      <c r="DB15" s="107"/>
+      <c r="DA15" s="122"/>
+      <c r="DB15" s="123"/>
     </row>
     <row r="16" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
       <c r="B16" s="68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="18"/>
@@ -4324,111 +4305,111 @@
         <f>P5</f>
         <v>45341</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="96"/>
       <c r="H16" s="64"/>
       <c r="I16" s="64"/>
       <c r="J16" s="64"/>
       <c r="K16" s="64"/>
       <c r="L16" s="64"/>
       <c r="M16" s="75"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="86"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="104"/>
       <c r="P16" s="75"/>
       <c r="Q16" s="64"/>
       <c r="R16" s="64"/>
       <c r="S16" s="64"/>
       <c r="T16" s="64"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="86"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="64"/>
       <c r="Z16" s="64"/>
       <c r="AA16" s="64"/>
-      <c r="AB16" s="85"/>
-      <c r="AC16" s="86"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="104"/>
       <c r="AD16" s="64"/>
       <c r="AE16" s="64"/>
       <c r="AF16" s="64"/>
       <c r="AG16" s="64"/>
       <c r="AH16" s="64"/>
-      <c r="AI16" s="85"/>
-      <c r="AJ16" s="86"/>
+      <c r="AI16" s="103"/>
+      <c r="AJ16" s="104"/>
       <c r="AK16" s="64"/>
       <c r="AL16" s="64"/>
       <c r="AM16" s="64"/>
       <c r="AN16" s="64"/>
       <c r="AO16" s="64"/>
-      <c r="AP16" s="85"/>
-      <c r="AQ16" s="86"/>
+      <c r="AP16" s="103"/>
+      <c r="AQ16" s="104"/>
       <c r="AR16" s="64"/>
       <c r="AS16" s="64"/>
       <c r="AT16" s="64"/>
       <c r="AU16" s="64"/>
       <c r="AV16" s="64"/>
-      <c r="AW16" s="85"/>
-      <c r="AX16" s="86"/>
+      <c r="AW16" s="103"/>
+      <c r="AX16" s="104"/>
       <c r="AY16" s="64"/>
       <c r="AZ16" s="64"/>
       <c r="BA16" s="64"/>
       <c r="BB16" s="64"/>
       <c r="BC16" s="64"/>
-      <c r="BD16" s="102"/>
-      <c r="BE16" s="102"/>
+      <c r="BD16" s="111"/>
+      <c r="BE16" s="111"/>
       <c r="BF16" s="64"/>
       <c r="BG16" s="64"/>
       <c r="BH16" s="64"/>
       <c r="BI16" s="64"/>
       <c r="BJ16" s="64"/>
-      <c r="BK16" s="85"/>
-      <c r="BL16" s="86"/>
+      <c r="BK16" s="122"/>
+      <c r="BL16" s="127"/>
       <c r="BM16" s="64"/>
       <c r="BN16" s="64"/>
       <c r="BO16" s="64"/>
       <c r="BP16" s="64"/>
       <c r="BQ16" s="64"/>
-      <c r="BR16" s="85"/>
-      <c r="BS16" s="86"/>
+      <c r="BR16" s="122"/>
+      <c r="BS16" s="127"/>
       <c r="BT16" s="64"/>
       <c r="BU16" s="64"/>
       <c r="BV16" s="64"/>
       <c r="BW16" s="64"/>
       <c r="BX16" s="64"/>
-      <c r="BY16" s="85"/>
-      <c r="BZ16" s="86"/>
+      <c r="BY16" s="122"/>
+      <c r="BZ16" s="127"/>
       <c r="CA16" s="64"/>
       <c r="CB16" s="64"/>
       <c r="CC16" s="64"/>
       <c r="CD16" s="64"/>
       <c r="CE16" s="64"/>
-      <c r="CF16" s="85"/>
-      <c r="CG16" s="86"/>
+      <c r="CF16" s="122"/>
+      <c r="CG16" s="127"/>
       <c r="CH16" s="64"/>
       <c r="CI16" s="64"/>
       <c r="CJ16" s="64"/>
       <c r="CK16" s="64"/>
       <c r="CL16" s="64"/>
-      <c r="CM16" s="85"/>
-      <c r="CN16" s="86"/>
+      <c r="CM16" s="122"/>
+      <c r="CN16" s="127"/>
       <c r="CO16" s="64"/>
       <c r="CP16" s="64"/>
       <c r="CQ16" s="64"/>
       <c r="CR16" s="64"/>
       <c r="CS16" s="64"/>
-      <c r="CT16" s="85"/>
-      <c r="CU16" s="86"/>
+      <c r="CT16" s="122"/>
+      <c r="CU16" s="127"/>
       <c r="CV16" s="64"/>
       <c r="CW16" s="64"/>
       <c r="CX16" s="64"/>
       <c r="CY16" s="64"/>
       <c r="CZ16" s="64"/>
-      <c r="DA16" s="85"/>
-      <c r="DB16" s="107"/>
+      <c r="DA16" s="122"/>
+      <c r="DB16" s="123"/>
     </row>
     <row r="17" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
       <c r="B17" s="68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="18"/>
@@ -4440,111 +4421,111 @@
         <f>Q5</f>
         <v>45342</v>
       </c>
-      <c r="G17" s="114"/>
+      <c r="G17" s="96"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
       <c r="J17" s="64"/>
       <c r="K17" s="64"/>
       <c r="L17" s="64"/>
       <c r="M17" s="64"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="82"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="100"/>
       <c r="R17" s="64"/>
       <c r="S17" s="64"/>
       <c r="T17" s="64"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="86"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="104"/>
       <c r="W17" s="64"/>
       <c r="X17" s="64"/>
       <c r="Y17" s="64"/>
       <c r="Z17" s="64"/>
       <c r="AA17" s="64"/>
-      <c r="AB17" s="85"/>
-      <c r="AC17" s="86"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="104"/>
       <c r="AD17" s="64"/>
       <c r="AE17" s="64"/>
       <c r="AF17" s="64"/>
       <c r="AG17" s="64"/>
       <c r="AH17" s="64"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="86"/>
+      <c r="AI17" s="103"/>
+      <c r="AJ17" s="104"/>
       <c r="AK17" s="64"/>
       <c r="AL17" s="64"/>
       <c r="AM17" s="64"/>
       <c r="AN17" s="64"/>
       <c r="AO17" s="64"/>
-      <c r="AP17" s="85"/>
-      <c r="AQ17" s="86"/>
+      <c r="AP17" s="103"/>
+      <c r="AQ17" s="104"/>
       <c r="AR17" s="64"/>
       <c r="AS17" s="64"/>
       <c r="AT17" s="64"/>
       <c r="AU17" s="64"/>
       <c r="AV17" s="64"/>
-      <c r="AW17" s="85"/>
-      <c r="AX17" s="86"/>
+      <c r="AW17" s="103"/>
+      <c r="AX17" s="104"/>
       <c r="AY17" s="64"/>
       <c r="AZ17" s="64"/>
       <c r="BA17" s="64"/>
       <c r="BB17" s="64"/>
       <c r="BC17" s="64"/>
-      <c r="BD17" s="102"/>
-      <c r="BE17" s="102"/>
+      <c r="BD17" s="111"/>
+      <c r="BE17" s="111"/>
       <c r="BF17" s="64"/>
       <c r="BG17" s="64"/>
       <c r="BH17" s="64"/>
       <c r="BI17" s="64"/>
       <c r="BJ17" s="64"/>
-      <c r="BK17" s="85"/>
-      <c r="BL17" s="86"/>
+      <c r="BK17" s="122"/>
+      <c r="BL17" s="127"/>
       <c r="BM17" s="64"/>
       <c r="BN17" s="64"/>
       <c r="BO17" s="64"/>
       <c r="BP17" s="64"/>
       <c r="BQ17" s="64"/>
-      <c r="BR17" s="85"/>
-      <c r="BS17" s="86"/>
+      <c r="BR17" s="122"/>
+      <c r="BS17" s="127"/>
       <c r="BT17" s="64"/>
       <c r="BU17" s="64"/>
       <c r="BV17" s="64"/>
       <c r="BW17" s="64"/>
       <c r="BX17" s="64"/>
-      <c r="BY17" s="85"/>
-      <c r="BZ17" s="86"/>
+      <c r="BY17" s="122"/>
+      <c r="BZ17" s="127"/>
       <c r="CA17" s="64"/>
       <c r="CB17" s="64"/>
       <c r="CC17" s="64"/>
       <c r="CD17" s="64"/>
       <c r="CE17" s="64"/>
-      <c r="CF17" s="85"/>
-      <c r="CG17" s="86"/>
+      <c r="CF17" s="122"/>
+      <c r="CG17" s="127"/>
       <c r="CH17" s="64"/>
       <c r="CI17" s="64"/>
       <c r="CJ17" s="64"/>
       <c r="CK17" s="64"/>
       <c r="CL17" s="64"/>
-      <c r="CM17" s="85"/>
-      <c r="CN17" s="86"/>
+      <c r="CM17" s="122"/>
+      <c r="CN17" s="127"/>
       <c r="CO17" s="64"/>
       <c r="CP17" s="64"/>
       <c r="CQ17" s="64"/>
       <c r="CR17" s="64"/>
       <c r="CS17" s="64"/>
-      <c r="CT17" s="85"/>
-      <c r="CU17" s="86"/>
+      <c r="CT17" s="122"/>
+      <c r="CU17" s="127"/>
       <c r="CV17" s="64"/>
       <c r="CW17" s="64"/>
       <c r="CX17" s="64"/>
       <c r="CY17" s="64"/>
       <c r="CZ17" s="64"/>
-      <c r="DA17" s="85"/>
-      <c r="DB17" s="107"/>
+      <c r="DA17" s="122"/>
+      <c r="DB17" s="123"/>
     </row>
     <row r="18" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
       <c r="B18" s="68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="18"/>
@@ -4556,111 +4537,111 @@
         <f>E18</f>
         <v>45343</v>
       </c>
-      <c r="G18" s="114"/>
+      <c r="G18" s="96"/>
       <c r="H18" s="64"/>
       <c r="I18" s="64"/>
       <c r="J18" s="64"/>
       <c r="K18" s="64"/>
       <c r="L18" s="64"/>
       <c r="M18" s="64"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="86"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="104"/>
       <c r="P18" s="64"/>
       <c r="Q18" s="64"/>
       <c r="R18" s="75"/>
       <c r="S18" s="64"/>
       <c r="T18" s="64"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="86"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="104"/>
       <c r="W18" s="64"/>
       <c r="X18" s="64"/>
       <c r="Y18" s="64"/>
       <c r="Z18" s="64"/>
       <c r="AA18" s="64"/>
-      <c r="AB18" s="85"/>
-      <c r="AC18" s="86"/>
+      <c r="AB18" s="103"/>
+      <c r="AC18" s="104"/>
       <c r="AD18" s="64"/>
       <c r="AE18" s="64"/>
       <c r="AF18" s="64"/>
       <c r="AG18" s="64"/>
       <c r="AH18" s="64"/>
-      <c r="AI18" s="85"/>
-      <c r="AJ18" s="86"/>
+      <c r="AI18" s="103"/>
+      <c r="AJ18" s="104"/>
       <c r="AK18" s="64"/>
       <c r="AL18" s="64"/>
       <c r="AM18" s="64"/>
       <c r="AN18" s="64"/>
       <c r="AO18" s="64"/>
-      <c r="AP18" s="85"/>
-      <c r="AQ18" s="86"/>
+      <c r="AP18" s="103"/>
+      <c r="AQ18" s="104"/>
       <c r="AR18" s="64"/>
       <c r="AS18" s="64"/>
       <c r="AT18" s="64"/>
       <c r="AU18" s="64"/>
       <c r="AV18" s="64"/>
-      <c r="AW18" s="85"/>
-      <c r="AX18" s="86"/>
+      <c r="AW18" s="103"/>
+      <c r="AX18" s="104"/>
       <c r="AY18" s="64"/>
       <c r="AZ18" s="64"/>
       <c r="BA18" s="64"/>
       <c r="BB18" s="64"/>
       <c r="BC18" s="64"/>
-      <c r="BD18" s="102"/>
-      <c r="BE18" s="102"/>
+      <c r="BD18" s="111"/>
+      <c r="BE18" s="111"/>
       <c r="BF18" s="64"/>
       <c r="BG18" s="64"/>
       <c r="BH18" s="64"/>
       <c r="BI18" s="64"/>
       <c r="BJ18" s="64"/>
-      <c r="BK18" s="85"/>
-      <c r="BL18" s="86"/>
+      <c r="BK18" s="122"/>
+      <c r="BL18" s="127"/>
       <c r="BM18" s="64"/>
       <c r="BN18" s="64"/>
       <c r="BO18" s="64"/>
       <c r="BP18" s="64"/>
       <c r="BQ18" s="64"/>
-      <c r="BR18" s="85"/>
-      <c r="BS18" s="86"/>
+      <c r="BR18" s="122"/>
+      <c r="BS18" s="127"/>
       <c r="BT18" s="64"/>
       <c r="BU18" s="64"/>
       <c r="BV18" s="64"/>
       <c r="BW18" s="64"/>
       <c r="BX18" s="64"/>
-      <c r="BY18" s="85"/>
-      <c r="BZ18" s="86"/>
+      <c r="BY18" s="122"/>
+      <c r="BZ18" s="127"/>
       <c r="CA18" s="64"/>
       <c r="CB18" s="64"/>
       <c r="CC18" s="64"/>
       <c r="CD18" s="64"/>
       <c r="CE18" s="64"/>
-      <c r="CF18" s="85"/>
-      <c r="CG18" s="86"/>
+      <c r="CF18" s="122"/>
+      <c r="CG18" s="127"/>
       <c r="CH18" s="64"/>
       <c r="CI18" s="64"/>
       <c r="CJ18" s="64"/>
       <c r="CK18" s="64"/>
       <c r="CL18" s="64"/>
-      <c r="CM18" s="85"/>
-      <c r="CN18" s="86"/>
+      <c r="CM18" s="122"/>
+      <c r="CN18" s="127"/>
       <c r="CO18" s="64"/>
       <c r="CP18" s="64"/>
       <c r="CQ18" s="64"/>
       <c r="CR18" s="64"/>
       <c r="CS18" s="64"/>
-      <c r="CT18" s="85"/>
-      <c r="CU18" s="86"/>
+      <c r="CT18" s="122"/>
+      <c r="CU18" s="127"/>
       <c r="CV18" s="64"/>
       <c r="CW18" s="64"/>
       <c r="CX18" s="64"/>
       <c r="CY18" s="64"/>
       <c r="CZ18" s="64"/>
-      <c r="DA18" s="85"/>
-      <c r="DB18" s="107"/>
+      <c r="DA18" s="122"/>
+      <c r="DB18" s="123"/>
     </row>
     <row r="19" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
       <c r="B19" s="68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="18"/>
@@ -4672,111 +4653,111 @@
         <f>E19</f>
         <v>45344</v>
       </c>
-      <c r="G19" s="114"/>
+      <c r="G19" s="96"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
       <c r="J19" s="64"/>
       <c r="K19" s="64"/>
       <c r="L19" s="64"/>
       <c r="M19" s="64"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="86"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="104"/>
       <c r="P19" s="64"/>
       <c r="Q19" s="64"/>
       <c r="R19" s="64"/>
       <c r="S19" s="75"/>
       <c r="T19" s="64"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="86"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="104"/>
       <c r="W19" s="64"/>
       <c r="X19" s="64"/>
       <c r="Y19" s="64"/>
       <c r="Z19" s="64"/>
       <c r="AA19" s="64"/>
-      <c r="AB19" s="85"/>
-      <c r="AC19" s="86"/>
+      <c r="AB19" s="103"/>
+      <c r="AC19" s="104"/>
       <c r="AD19" s="64"/>
       <c r="AE19" s="64"/>
       <c r="AF19" s="64"/>
       <c r="AG19" s="64"/>
       <c r="AH19" s="64"/>
-      <c r="AI19" s="85"/>
-      <c r="AJ19" s="86"/>
+      <c r="AI19" s="103"/>
+      <c r="AJ19" s="104"/>
       <c r="AK19" s="64"/>
       <c r="AL19" s="64"/>
       <c r="AM19" s="64"/>
       <c r="AN19" s="64"/>
       <c r="AO19" s="64"/>
-      <c r="AP19" s="85"/>
-      <c r="AQ19" s="86"/>
+      <c r="AP19" s="103"/>
+      <c r="AQ19" s="104"/>
       <c r="AR19" s="64"/>
       <c r="AS19" s="64"/>
       <c r="AT19" s="64"/>
       <c r="AU19" s="64"/>
       <c r="AV19" s="64"/>
-      <c r="AW19" s="85"/>
-      <c r="AX19" s="86"/>
+      <c r="AW19" s="103"/>
+      <c r="AX19" s="104"/>
       <c r="AY19" s="64"/>
       <c r="AZ19" s="64"/>
       <c r="BA19" s="64"/>
       <c r="BB19" s="64"/>
       <c r="BC19" s="64"/>
-      <c r="BD19" s="102"/>
-      <c r="BE19" s="102"/>
+      <c r="BD19" s="111"/>
+      <c r="BE19" s="111"/>
       <c r="BF19" s="64"/>
       <c r="BG19" s="64"/>
       <c r="BH19" s="64"/>
       <c r="BI19" s="64"/>
       <c r="BJ19" s="64"/>
-      <c r="BK19" s="85"/>
-      <c r="BL19" s="86"/>
+      <c r="BK19" s="122"/>
+      <c r="BL19" s="127"/>
       <c r="BM19" s="64"/>
       <c r="BN19" s="64"/>
       <c r="BO19" s="64"/>
       <c r="BP19" s="64"/>
       <c r="BQ19" s="64"/>
-      <c r="BR19" s="85"/>
-      <c r="BS19" s="86"/>
+      <c r="BR19" s="122"/>
+      <c r="BS19" s="127"/>
       <c r="BT19" s="64"/>
       <c r="BU19" s="64"/>
       <c r="BV19" s="64"/>
       <c r="BW19" s="64"/>
       <c r="BX19" s="64"/>
-      <c r="BY19" s="85"/>
-      <c r="BZ19" s="86"/>
+      <c r="BY19" s="122"/>
+      <c r="BZ19" s="127"/>
       <c r="CA19" s="64"/>
       <c r="CB19" s="64"/>
       <c r="CC19" s="64"/>
       <c r="CD19" s="64"/>
       <c r="CE19" s="64"/>
-      <c r="CF19" s="85"/>
-      <c r="CG19" s="86"/>
+      <c r="CF19" s="122"/>
+      <c r="CG19" s="127"/>
       <c r="CH19" s="64"/>
       <c r="CI19" s="64"/>
       <c r="CJ19" s="64"/>
       <c r="CK19" s="64"/>
       <c r="CL19" s="64"/>
-      <c r="CM19" s="85"/>
-      <c r="CN19" s="86"/>
+      <c r="CM19" s="122"/>
+      <c r="CN19" s="127"/>
       <c r="CO19" s="64"/>
       <c r="CP19" s="64"/>
       <c r="CQ19" s="64"/>
       <c r="CR19" s="64"/>
       <c r="CS19" s="64"/>
-      <c r="CT19" s="85"/>
-      <c r="CU19" s="86"/>
+      <c r="CT19" s="122"/>
+      <c r="CU19" s="127"/>
       <c r="CV19" s="64"/>
       <c r="CW19" s="64"/>
       <c r="CX19" s="64"/>
       <c r="CY19" s="64"/>
       <c r="CZ19" s="64"/>
-      <c r="DA19" s="85"/>
-      <c r="DB19" s="107"/>
+      <c r="DA19" s="122"/>
+      <c r="DB19" s="123"/>
     </row>
     <row r="20" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
       <c r="B20" s="68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="18"/>
@@ -4788,143 +4769,143 @@
         <f>E20</f>
         <v>45345</v>
       </c>
-      <c r="G20" s="115"/>
+      <c r="G20" s="97"/>
       <c r="H20" s="64"/>
       <c r="I20" s="64"/>
       <c r="J20" s="64"/>
       <c r="K20" s="64"/>
       <c r="L20" s="64"/>
       <c r="M20" s="64"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="86"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="104"/>
       <c r="P20" s="64"/>
       <c r="Q20" s="64"/>
       <c r="R20" s="64"/>
       <c r="S20" s="64"/>
       <c r="T20" s="75"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="86"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="104"/>
       <c r="W20" s="64"/>
       <c r="X20" s="64"/>
       <c r="Y20" s="64"/>
       <c r="Z20" s="64"/>
       <c r="AA20" s="64"/>
-      <c r="AB20" s="85"/>
-      <c r="AC20" s="86"/>
+      <c r="AB20" s="103"/>
+      <c r="AC20" s="104"/>
       <c r="AD20" s="64"/>
       <c r="AE20" s="64"/>
       <c r="AF20" s="64"/>
       <c r="AG20" s="64"/>
       <c r="AH20" s="64"/>
-      <c r="AI20" s="87"/>
-      <c r="AJ20" s="88"/>
+      <c r="AI20" s="105"/>
+      <c r="AJ20" s="106"/>
       <c r="AK20" s="64"/>
       <c r="AL20" s="64"/>
       <c r="AM20" s="64"/>
       <c r="AN20" s="64"/>
       <c r="AO20" s="64"/>
-      <c r="AP20" s="87"/>
-      <c r="AQ20" s="88"/>
+      <c r="AP20" s="105"/>
+      <c r="AQ20" s="106"/>
       <c r="AR20" s="64"/>
       <c r="AS20" s="64"/>
       <c r="AT20" s="64"/>
       <c r="AU20" s="64"/>
       <c r="AV20" s="64"/>
-      <c r="AW20" s="87"/>
-      <c r="AX20" s="88"/>
+      <c r="AW20" s="105"/>
+      <c r="AX20" s="106"/>
       <c r="AY20" s="64"/>
       <c r="AZ20" s="64"/>
       <c r="BA20" s="64"/>
       <c r="BB20" s="64"/>
       <c r="BC20" s="64"/>
-      <c r="BD20" s="102"/>
-      <c r="BE20" s="102"/>
+      <c r="BD20" s="111"/>
+      <c r="BE20" s="111"/>
       <c r="BF20" s="64"/>
       <c r="BG20" s="64"/>
       <c r="BH20" s="64"/>
       <c r="BI20" s="64"/>
       <c r="BJ20" s="64"/>
-      <c r="BK20" s="85"/>
-      <c r="BL20" s="86"/>
+      <c r="BK20" s="122"/>
+      <c r="BL20" s="127"/>
       <c r="BM20" s="64"/>
       <c r="BN20" s="64"/>
       <c r="BO20" s="64"/>
       <c r="BP20" s="64"/>
       <c r="BQ20" s="64"/>
-      <c r="BR20" s="85"/>
-      <c r="BS20" s="86"/>
+      <c r="BR20" s="122"/>
+      <c r="BS20" s="127"/>
       <c r="BT20" s="64"/>
       <c r="BU20" s="64"/>
       <c r="BV20" s="64"/>
       <c r="BW20" s="64"/>
       <c r="BX20" s="64"/>
-      <c r="BY20" s="85"/>
-      <c r="BZ20" s="86"/>
+      <c r="BY20" s="122"/>
+      <c r="BZ20" s="127"/>
       <c r="CA20" s="64"/>
       <c r="CB20" s="64"/>
       <c r="CC20" s="64"/>
       <c r="CD20" s="64"/>
       <c r="CE20" s="64"/>
-      <c r="CF20" s="85"/>
-      <c r="CG20" s="86"/>
+      <c r="CF20" s="122"/>
+      <c r="CG20" s="127"/>
       <c r="CH20" s="64"/>
       <c r="CI20" s="64"/>
       <c r="CJ20" s="64"/>
       <c r="CK20" s="64"/>
       <c r="CL20" s="64"/>
-      <c r="CM20" s="85"/>
-      <c r="CN20" s="86"/>
+      <c r="CM20" s="122"/>
+      <c r="CN20" s="127"/>
       <c r="CO20" s="64"/>
       <c r="CP20" s="64"/>
       <c r="CQ20" s="64"/>
       <c r="CR20" s="64"/>
       <c r="CS20" s="64"/>
-      <c r="CT20" s="85"/>
-      <c r="CU20" s="86"/>
+      <c r="CT20" s="122"/>
+      <c r="CU20" s="127"/>
       <c r="CV20" s="64"/>
       <c r="CW20" s="64"/>
       <c r="CX20" s="64"/>
       <c r="CY20" s="64"/>
       <c r="CZ20" s="64"/>
-      <c r="DA20" s="85"/>
-      <c r="DB20" s="107"/>
+      <c r="DA20" s="122"/>
+      <c r="DB20" s="123"/>
     </row>
     <row r="21" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="53"/>
-      <c r="G21" s="113"/>
+      <c r="G21" s="95"/>
       <c r="H21" s="64"/>
       <c r="I21" s="64"/>
       <c r="J21" s="64"/>
       <c r="K21" s="64"/>
       <c r="L21" s="64"/>
       <c r="M21" s="64"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="86"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="104"/>
       <c r="P21" s="64"/>
       <c r="Q21" s="64"/>
       <c r="R21" s="64"/>
       <c r="S21" s="64"/>
       <c r="T21" s="64"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="86"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="104"/>
       <c r="W21" s="78"/>
       <c r="X21" s="78"/>
       <c r="Y21" s="64"/>
       <c r="Z21" s="64"/>
       <c r="AA21" s="64"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="86"/>
+      <c r="AB21" s="103"/>
+      <c r="AC21" s="104"/>
       <c r="AD21" s="76"/>
       <c r="AE21" s="76"/>
       <c r="AF21" s="76"/>
@@ -4958,55 +4939,55 @@
       <c r="BH21" s="76"/>
       <c r="BI21" s="77"/>
       <c r="BJ21" s="64"/>
-      <c r="BK21" s="85"/>
-      <c r="BL21" s="86"/>
+      <c r="BK21" s="122"/>
+      <c r="BL21" s="127"/>
       <c r="BM21" s="64"/>
       <c r="BN21" s="64"/>
       <c r="BO21" s="64"/>
       <c r="BP21" s="64"/>
       <c r="BQ21" s="64"/>
-      <c r="BR21" s="85"/>
-      <c r="BS21" s="86"/>
+      <c r="BR21" s="122"/>
+      <c r="BS21" s="127"/>
       <c r="BT21" s="64"/>
       <c r="BU21" s="64"/>
       <c r="BV21" s="64"/>
       <c r="BW21" s="64"/>
       <c r="BX21" s="64"/>
-      <c r="BY21" s="85"/>
-      <c r="BZ21" s="86"/>
+      <c r="BY21" s="122"/>
+      <c r="BZ21" s="127"/>
       <c r="CA21" s="64"/>
       <c r="CB21" s="64"/>
       <c r="CC21" s="64"/>
       <c r="CD21" s="64"/>
       <c r="CE21" s="64"/>
-      <c r="CF21" s="85"/>
-      <c r="CG21" s="86"/>
+      <c r="CF21" s="122"/>
+      <c r="CG21" s="127"/>
       <c r="CH21" s="64"/>
       <c r="CI21" s="64"/>
       <c r="CJ21" s="64"/>
       <c r="CK21" s="64"/>
       <c r="CL21" s="64"/>
-      <c r="CM21" s="85"/>
-      <c r="CN21" s="86"/>
+      <c r="CM21" s="122"/>
+      <c r="CN21" s="127"/>
       <c r="CO21" s="64"/>
       <c r="CP21" s="64"/>
       <c r="CQ21" s="64"/>
       <c r="CR21" s="64"/>
       <c r="CS21" s="64"/>
-      <c r="CT21" s="85"/>
-      <c r="CU21" s="86"/>
+      <c r="CT21" s="122"/>
+      <c r="CU21" s="127"/>
       <c r="CV21" s="64"/>
       <c r="CW21" s="64"/>
       <c r="CX21" s="64"/>
       <c r="CY21" s="64"/>
       <c r="CZ21" s="64"/>
-      <c r="DA21" s="85"/>
-      <c r="DB21" s="107"/>
+      <c r="DA21" s="122"/>
+      <c r="DB21" s="123"/>
     </row>
     <row r="22" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="21"/>
@@ -5018,111 +4999,111 @@
         <f>AE5</f>
         <v>45356</v>
       </c>
-      <c r="G22" s="114"/>
+      <c r="G22" s="96"/>
       <c r="H22" s="64"/>
       <c r="I22" s="64"/>
       <c r="J22" s="64"/>
       <c r="K22" s="64"/>
       <c r="L22" s="64"/>
       <c r="M22" s="64"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="86"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="104"/>
       <c r="P22" s="64"/>
       <c r="Q22" s="64"/>
       <c r="R22" s="64"/>
       <c r="S22" s="64"/>
       <c r="T22" s="64"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="86"/>
+      <c r="U22" s="103"/>
+      <c r="V22" s="104"/>
       <c r="W22" s="64"/>
       <c r="X22" s="64"/>
       <c r="Y22" s="79"/>
       <c r="Z22" s="79"/>
       <c r="AA22" s="79"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="82"/>
+      <c r="AB22" s="103"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="100"/>
       <c r="AF22" s="64"/>
       <c r="AG22" s="64"/>
       <c r="AH22" s="64"/>
-      <c r="AI22" s="83"/>
-      <c r="AJ22" s="84"/>
+      <c r="AI22" s="101"/>
+      <c r="AJ22" s="102"/>
       <c r="AK22" s="64"/>
       <c r="AL22" s="64"/>
       <c r="AM22" s="64"/>
       <c r="AN22" s="64"/>
       <c r="AO22" s="64"/>
-      <c r="AP22" s="83"/>
-      <c r="AQ22" s="84"/>
+      <c r="AP22" s="101"/>
+      <c r="AQ22" s="102"/>
       <c r="AR22" s="64"/>
       <c r="AS22" s="64"/>
       <c r="AT22" s="64"/>
       <c r="AU22" s="64"/>
       <c r="AV22" s="64"/>
-      <c r="AW22" s="83"/>
-      <c r="AX22" s="84"/>
+      <c r="AW22" s="101"/>
+      <c r="AX22" s="102"/>
       <c r="AY22" s="64"/>
       <c r="AZ22" s="64"/>
       <c r="BA22" s="64"/>
       <c r="BB22" s="64"/>
       <c r="BC22" s="64"/>
-      <c r="BD22" s="102"/>
+      <c r="BD22" s="101"/>
       <c r="BE22" s="102"/>
       <c r="BF22" s="64"/>
       <c r="BG22" s="64"/>
       <c r="BH22" s="64"/>
       <c r="BI22" s="64"/>
       <c r="BJ22" s="64"/>
-      <c r="BK22" s="85"/>
-      <c r="BL22" s="86"/>
+      <c r="BK22" s="122"/>
+      <c r="BL22" s="127"/>
       <c r="BM22" s="64"/>
       <c r="BN22" s="64"/>
       <c r="BO22" s="64"/>
       <c r="BP22" s="64"/>
       <c r="BQ22" s="64"/>
-      <c r="BR22" s="85"/>
-      <c r="BS22" s="86"/>
+      <c r="BR22" s="122"/>
+      <c r="BS22" s="127"/>
       <c r="BT22" s="64"/>
       <c r="BU22" s="64"/>
       <c r="BV22" s="64"/>
       <c r="BW22" s="64"/>
       <c r="BX22" s="64"/>
-      <c r="BY22" s="85"/>
-      <c r="BZ22" s="86"/>
+      <c r="BY22" s="122"/>
+      <c r="BZ22" s="127"/>
       <c r="CA22" s="64"/>
       <c r="CB22" s="64"/>
       <c r="CC22" s="64"/>
       <c r="CD22" s="64"/>
       <c r="CE22" s="64"/>
-      <c r="CF22" s="85"/>
-      <c r="CG22" s="86"/>
+      <c r="CF22" s="122"/>
+      <c r="CG22" s="127"/>
       <c r="CH22" s="64"/>
       <c r="CI22" s="64"/>
       <c r="CJ22" s="64"/>
       <c r="CK22" s="64"/>
       <c r="CL22" s="64"/>
-      <c r="CM22" s="85"/>
-      <c r="CN22" s="86"/>
+      <c r="CM22" s="122"/>
+      <c r="CN22" s="127"/>
       <c r="CO22" s="64"/>
       <c r="CP22" s="64"/>
       <c r="CQ22" s="64"/>
       <c r="CR22" s="64"/>
       <c r="CS22" s="64"/>
-      <c r="CT22" s="85"/>
-      <c r="CU22" s="86"/>
+      <c r="CT22" s="122"/>
+      <c r="CU22" s="127"/>
       <c r="CV22" s="64"/>
       <c r="CW22" s="64"/>
       <c r="CX22" s="64"/>
       <c r="CY22" s="64"/>
       <c r="CZ22" s="64"/>
-      <c r="DA22" s="85"/>
-      <c r="DB22" s="107"/>
+      <c r="DA22" s="122"/>
+      <c r="DB22" s="123"/>
     </row>
     <row r="23" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="21"/>
@@ -5134,111 +5115,111 @@
         <f>AH5</f>
         <v>45359</v>
       </c>
-      <c r="G23" s="114"/>
+      <c r="G23" s="96"/>
       <c r="H23" s="64"/>
       <c r="I23" s="64"/>
       <c r="J23" s="64"/>
       <c r="K23" s="64"/>
       <c r="L23" s="64"/>
       <c r="M23" s="64"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="86"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="104"/>
       <c r="P23" s="64"/>
       <c r="Q23" s="64"/>
       <c r="R23" s="64"/>
       <c r="S23" s="64"/>
       <c r="T23" s="64"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="86"/>
+      <c r="U23" s="103"/>
+      <c r="V23" s="104"/>
       <c r="W23" s="80"/>
       <c r="X23" s="64"/>
       <c r="Y23" s="64"/>
       <c r="Z23" s="64"/>
       <c r="AA23" s="64"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="86"/>
+      <c r="AB23" s="103"/>
+      <c r="AC23" s="104"/>
       <c r="AD23" s="64"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="89"/>
-      <c r="AG23" s="89"/>
-      <c r="AH23" s="82"/>
-      <c r="AI23" s="85"/>
-      <c r="AJ23" s="86"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="99"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="100"/>
+      <c r="AI23" s="103"/>
+      <c r="AJ23" s="104"/>
       <c r="AK23" s="64"/>
       <c r="AL23" s="64"/>
       <c r="AM23" s="64"/>
       <c r="AN23" s="64"/>
       <c r="AO23" s="64"/>
-      <c r="AP23" s="85"/>
-      <c r="AQ23" s="86"/>
+      <c r="AP23" s="103"/>
+      <c r="AQ23" s="104"/>
       <c r="AR23" s="64"/>
       <c r="AS23" s="64"/>
       <c r="AT23" s="64"/>
       <c r="AU23" s="64"/>
       <c r="AV23" s="64"/>
-      <c r="AW23" s="85"/>
-      <c r="AX23" s="86"/>
+      <c r="AW23" s="103"/>
+      <c r="AX23" s="104"/>
       <c r="AY23" s="64"/>
       <c r="AZ23" s="64"/>
       <c r="BA23" s="64"/>
       <c r="BB23" s="64"/>
       <c r="BC23" s="64"/>
-      <c r="BD23" s="102"/>
-      <c r="BE23" s="102"/>
+      <c r="BD23" s="103"/>
+      <c r="BE23" s="104"/>
       <c r="BF23" s="64"/>
       <c r="BG23" s="64"/>
       <c r="BH23" s="64"/>
       <c r="BI23" s="64"/>
       <c r="BJ23" s="64"/>
-      <c r="BK23" s="85"/>
-      <c r="BL23" s="86"/>
+      <c r="BK23" s="122"/>
+      <c r="BL23" s="127"/>
       <c r="BM23" s="64"/>
       <c r="BN23" s="64"/>
       <c r="BO23" s="64"/>
       <c r="BP23" s="64"/>
       <c r="BQ23" s="64"/>
-      <c r="BR23" s="85"/>
-      <c r="BS23" s="86"/>
+      <c r="BR23" s="122"/>
+      <c r="BS23" s="127"/>
       <c r="BT23" s="64"/>
       <c r="BU23" s="64"/>
       <c r="BV23" s="64"/>
       <c r="BW23" s="64"/>
       <c r="BX23" s="64"/>
-      <c r="BY23" s="85"/>
-      <c r="BZ23" s="86"/>
+      <c r="BY23" s="122"/>
+      <c r="BZ23" s="127"/>
       <c r="CA23" s="64"/>
       <c r="CB23" s="64"/>
       <c r="CC23" s="64"/>
       <c r="CD23" s="64"/>
       <c r="CE23" s="64"/>
-      <c r="CF23" s="85"/>
-      <c r="CG23" s="86"/>
+      <c r="CF23" s="122"/>
+      <c r="CG23" s="127"/>
       <c r="CH23" s="64"/>
       <c r="CI23" s="64"/>
       <c r="CJ23" s="64"/>
       <c r="CK23" s="64"/>
       <c r="CL23" s="64"/>
-      <c r="CM23" s="85"/>
-      <c r="CN23" s="86"/>
+      <c r="CM23" s="122"/>
+      <c r="CN23" s="127"/>
       <c r="CO23" s="64"/>
       <c r="CP23" s="64"/>
       <c r="CQ23" s="64"/>
       <c r="CR23" s="64"/>
       <c r="CS23" s="64"/>
-      <c r="CT23" s="85"/>
-      <c r="CU23" s="86"/>
+      <c r="CT23" s="122"/>
+      <c r="CU23" s="127"/>
       <c r="CV23" s="64"/>
       <c r="CW23" s="64"/>
       <c r="CX23" s="64"/>
       <c r="CY23" s="64"/>
       <c r="CZ23" s="64"/>
-      <c r="DA23" s="85"/>
-      <c r="DB23" s="107"/>
+      <c r="DA23" s="122"/>
+      <c r="DB23" s="123"/>
     </row>
     <row r="24" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
       <c r="B24" s="69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="21"/>
@@ -5250,109 +5231,109 @@
         <f>AK5</f>
         <v>45362</v>
       </c>
-      <c r="G24" s="114"/>
+      <c r="G24" s="96"/>
       <c r="H24" s="64"/>
       <c r="I24" s="64"/>
       <c r="J24" s="64"/>
       <c r="K24" s="64"/>
       <c r="L24" s="64"/>
       <c r="M24" s="64"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="86"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="104"/>
       <c r="P24" s="64"/>
       <c r="Q24" s="64"/>
       <c r="R24" s="64"/>
       <c r="S24" s="64"/>
       <c r="T24" s="64"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="86"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="104"/>
       <c r="W24" s="64"/>
       <c r="X24" s="80"/>
       <c r="Y24" s="80"/>
       <c r="Z24" s="80"/>
       <c r="AA24" s="80"/>
-      <c r="AB24" s="85"/>
-      <c r="AC24" s="86"/>
+      <c r="AB24" s="103"/>
+      <c r="AC24" s="104"/>
       <c r="AE24" s="78"/>
       <c r="AF24" s="78"/>
       <c r="AG24" s="64"/>
-      <c r="AI24" s="85"/>
-      <c r="AJ24" s="86"/>
+      <c r="AI24" s="103"/>
+      <c r="AJ24" s="104"/>
       <c r="AK24" s="75"/>
       <c r="AL24" s="64"/>
       <c r="AM24" s="64"/>
       <c r="AN24" s="64"/>
       <c r="AO24" s="64"/>
-      <c r="AP24" s="85"/>
-      <c r="AQ24" s="86"/>
+      <c r="AP24" s="103"/>
+      <c r="AQ24" s="104"/>
       <c r="AR24" s="64"/>
       <c r="AS24" s="64"/>
       <c r="AT24" s="64"/>
       <c r="AU24" s="64"/>
       <c r="AV24" s="64"/>
-      <c r="AW24" s="85"/>
-      <c r="AX24" s="86"/>
+      <c r="AW24" s="103"/>
+      <c r="AX24" s="104"/>
       <c r="AY24" s="64"/>
       <c r="AZ24" s="64"/>
       <c r="BA24" s="64"/>
       <c r="BB24" s="64"/>
       <c r="BC24" s="64"/>
-      <c r="BD24" s="102"/>
-      <c r="BE24" s="102"/>
+      <c r="BD24" s="103"/>
+      <c r="BE24" s="104"/>
       <c r="BF24" s="64"/>
       <c r="BG24" s="64"/>
       <c r="BH24" s="64"/>
       <c r="BI24" s="64"/>
       <c r="BJ24" s="64"/>
-      <c r="BK24" s="85"/>
-      <c r="BL24" s="86"/>
+      <c r="BK24" s="122"/>
+      <c r="BL24" s="127"/>
       <c r="BM24" s="64"/>
       <c r="BN24" s="64"/>
       <c r="BO24" s="64"/>
       <c r="BP24" s="64"/>
       <c r="BQ24" s="64"/>
-      <c r="BR24" s="85"/>
-      <c r="BS24" s="86"/>
+      <c r="BR24" s="122"/>
+      <c r="BS24" s="127"/>
       <c r="BT24" s="64"/>
       <c r="BU24" s="64"/>
       <c r="BV24" s="64"/>
       <c r="BW24" s="64"/>
       <c r="BX24" s="64"/>
-      <c r="BY24" s="85"/>
-      <c r="BZ24" s="86"/>
+      <c r="BY24" s="122"/>
+      <c r="BZ24" s="127"/>
       <c r="CA24" s="64"/>
       <c r="CB24" s="64"/>
       <c r="CC24" s="64"/>
       <c r="CD24" s="64"/>
       <c r="CE24" s="64"/>
-      <c r="CF24" s="85"/>
-      <c r="CG24" s="86"/>
+      <c r="CF24" s="122"/>
+      <c r="CG24" s="127"/>
       <c r="CH24" s="64"/>
       <c r="CI24" s="64"/>
       <c r="CJ24" s="64"/>
       <c r="CK24" s="64"/>
       <c r="CL24" s="64"/>
-      <c r="CM24" s="85"/>
-      <c r="CN24" s="86"/>
+      <c r="CM24" s="122"/>
+      <c r="CN24" s="127"/>
       <c r="CO24" s="64"/>
       <c r="CP24" s="64"/>
       <c r="CQ24" s="64"/>
       <c r="CR24" s="64"/>
       <c r="CS24" s="64"/>
-      <c r="CT24" s="85"/>
-      <c r="CU24" s="86"/>
+      <c r="CT24" s="122"/>
+      <c r="CU24" s="127"/>
       <c r="CV24" s="64"/>
       <c r="CW24" s="64"/>
       <c r="CX24" s="64"/>
       <c r="CY24" s="64"/>
       <c r="CZ24" s="64"/>
-      <c r="DA24" s="85"/>
-      <c r="DB24" s="107"/>
+      <c r="DA24" s="122"/>
+      <c r="DB24" s="123"/>
     </row>
     <row r="25" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
       <c r="B25" s="69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="21"/>
@@ -5364,111 +5345,111 @@
         <f>AM5</f>
         <v>45364</v>
       </c>
-      <c r="G25" s="114"/>
+      <c r="G25" s="96"/>
       <c r="H25" s="64"/>
       <c r="I25" s="64"/>
       <c r="J25" s="64"/>
       <c r="K25" s="64"/>
       <c r="L25" s="64"/>
       <c r="M25" s="64"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="86"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="104"/>
       <c r="P25" s="64"/>
       <c r="Q25" s="64"/>
       <c r="R25" s="64"/>
       <c r="S25" s="64"/>
       <c r="T25" s="64"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="86"/>
+      <c r="U25" s="103"/>
+      <c r="V25" s="104"/>
       <c r="W25" s="64"/>
       <c r="X25" s="64"/>
       <c r="Y25" s="64"/>
       <c r="Z25" s="64"/>
       <c r="AA25" s="64"/>
-      <c r="AB25" s="85"/>
-      <c r="AC25" s="86"/>
+      <c r="AB25" s="103"/>
+      <c r="AC25" s="104"/>
       <c r="AD25" s="64"/>
       <c r="AE25" s="64"/>
       <c r="AF25" s="64"/>
       <c r="AG25" s="78"/>
       <c r="AH25" s="78"/>
-      <c r="AI25" s="85"/>
-      <c r="AJ25" s="86"/>
+      <c r="AI25" s="103"/>
+      <c r="AJ25" s="104"/>
       <c r="AK25" s="64"/>
-      <c r="AL25" s="81"/>
-      <c r="AM25" s="82"/>
+      <c r="AL25" s="98"/>
+      <c r="AM25" s="100"/>
       <c r="AN25" s="64"/>
       <c r="AO25" s="64"/>
-      <c r="AP25" s="85"/>
-      <c r="AQ25" s="86"/>
+      <c r="AP25" s="103"/>
+      <c r="AQ25" s="104"/>
       <c r="AR25" s="64"/>
       <c r="AS25" s="64"/>
       <c r="AT25" s="64"/>
       <c r="AU25" s="64"/>
       <c r="AV25" s="64"/>
-      <c r="AW25" s="85"/>
-      <c r="AX25" s="86"/>
+      <c r="AW25" s="103"/>
+      <c r="AX25" s="104"/>
       <c r="AY25" s="64"/>
       <c r="AZ25" s="64"/>
       <c r="BA25" s="64"/>
       <c r="BB25" s="64"/>
       <c r="BC25" s="64"/>
-      <c r="BD25" s="102"/>
-      <c r="BE25" s="102"/>
+      <c r="BD25" s="103"/>
+      <c r="BE25" s="104"/>
       <c r="BF25" s="64"/>
       <c r="BG25" s="64"/>
       <c r="BH25" s="64"/>
       <c r="BI25" s="64"/>
       <c r="BJ25" s="64"/>
-      <c r="BK25" s="85"/>
-      <c r="BL25" s="86"/>
+      <c r="BK25" s="122"/>
+      <c r="BL25" s="127"/>
       <c r="BM25" s="64"/>
       <c r="BN25" s="64"/>
       <c r="BO25" s="64"/>
       <c r="BP25" s="64"/>
       <c r="BQ25" s="64"/>
-      <c r="BR25" s="85"/>
-      <c r="BS25" s="86"/>
+      <c r="BR25" s="122"/>
+      <c r="BS25" s="127"/>
       <c r="BT25" s="64"/>
       <c r="BU25" s="64"/>
       <c r="BV25" s="64"/>
       <c r="BW25" s="64"/>
       <c r="BX25" s="64"/>
-      <c r="BY25" s="85"/>
-      <c r="BZ25" s="86"/>
+      <c r="BY25" s="122"/>
+      <c r="BZ25" s="127"/>
       <c r="CA25" s="64"/>
       <c r="CB25" s="64"/>
       <c r="CC25" s="64"/>
       <c r="CD25" s="64"/>
       <c r="CE25" s="64"/>
-      <c r="CF25" s="85"/>
-      <c r="CG25" s="86"/>
+      <c r="CF25" s="122"/>
+      <c r="CG25" s="127"/>
       <c r="CH25" s="64"/>
       <c r="CI25" s="64"/>
       <c r="CJ25" s="64"/>
       <c r="CK25" s="64"/>
       <c r="CL25" s="64"/>
-      <c r="CM25" s="85"/>
-      <c r="CN25" s="86"/>
+      <c r="CM25" s="122"/>
+      <c r="CN25" s="127"/>
       <c r="CO25" s="64"/>
       <c r="CP25" s="64"/>
       <c r="CQ25" s="64"/>
       <c r="CR25" s="64"/>
       <c r="CS25" s="64"/>
-      <c r="CT25" s="85"/>
-      <c r="CU25" s="86"/>
+      <c r="CT25" s="122"/>
+      <c r="CU25" s="127"/>
       <c r="CV25" s="64"/>
       <c r="CW25" s="64"/>
       <c r="CX25" s="64"/>
       <c r="CY25" s="64"/>
       <c r="CZ25" s="64"/>
-      <c r="DA25" s="85"/>
-      <c r="DB25" s="107"/>
+      <c r="DA25" s="122"/>
+      <c r="DB25" s="123"/>
     </row>
     <row r="26" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
       <c r="B26" s="69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="21"/>
@@ -5480,111 +5461,111 @@
         <f>AO5</f>
         <v>45366</v>
       </c>
-      <c r="G26" s="114"/>
+      <c r="G26" s="96"/>
       <c r="H26" s="64"/>
       <c r="I26" s="64"/>
       <c r="J26" s="64"/>
       <c r="K26" s="64"/>
       <c r="L26" s="64"/>
       <c r="M26" s="64"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="86"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="104"/>
       <c r="P26" s="64"/>
       <c r="Q26" s="64"/>
       <c r="R26" s="64"/>
       <c r="S26" s="64"/>
       <c r="T26" s="64"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="86"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="104"/>
       <c r="W26" s="64"/>
       <c r="X26" s="64"/>
       <c r="Y26" s="64"/>
       <c r="Z26" s="64"/>
       <c r="AA26" s="64"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="86"/>
+      <c r="AB26" s="103"/>
+      <c r="AC26" s="104"/>
       <c r="AD26" s="64"/>
       <c r="AE26" s="80"/>
       <c r="AF26" s="80"/>
       <c r="AG26" s="64"/>
       <c r="AH26" s="64"/>
-      <c r="AI26" s="85"/>
-      <c r="AJ26" s="86"/>
+      <c r="AI26" s="103"/>
+      <c r="AJ26" s="104"/>
       <c r="AK26" s="64"/>
       <c r="AL26" s="64"/>
       <c r="AM26" s="64"/>
-      <c r="AN26" s="81"/>
-      <c r="AO26" s="82"/>
-      <c r="AP26" s="85"/>
-      <c r="AQ26" s="86"/>
+      <c r="AN26" s="98"/>
+      <c r="AO26" s="100"/>
+      <c r="AP26" s="103"/>
+      <c r="AQ26" s="104"/>
       <c r="AR26" s="64"/>
       <c r="AS26" s="64"/>
       <c r="AT26" s="64"/>
       <c r="AU26" s="64"/>
       <c r="AV26" s="64"/>
-      <c r="AW26" s="85"/>
-      <c r="AX26" s="86"/>
+      <c r="AW26" s="103"/>
+      <c r="AX26" s="104"/>
       <c r="AY26" s="64"/>
       <c r="AZ26" s="64"/>
       <c r="BA26" s="64"/>
       <c r="BB26" s="64"/>
       <c r="BC26" s="64"/>
-      <c r="BD26" s="102"/>
-      <c r="BE26" s="102"/>
+      <c r="BD26" s="103"/>
+      <c r="BE26" s="104"/>
       <c r="BF26" s="64"/>
       <c r="BG26" s="64"/>
       <c r="BH26" s="64"/>
       <c r="BI26" s="64"/>
       <c r="BJ26" s="64"/>
-      <c r="BK26" s="85"/>
-      <c r="BL26" s="86"/>
+      <c r="BK26" s="122"/>
+      <c r="BL26" s="127"/>
       <c r="BM26" s="64"/>
       <c r="BN26" s="64"/>
       <c r="BO26" s="64"/>
       <c r="BP26" s="64"/>
       <c r="BQ26" s="64"/>
-      <c r="BR26" s="85"/>
-      <c r="BS26" s="86"/>
+      <c r="BR26" s="122"/>
+      <c r="BS26" s="127"/>
       <c r="BT26" s="64"/>
       <c r="BU26" s="64"/>
       <c r="BV26" s="64"/>
       <c r="BW26" s="64"/>
       <c r="BX26" s="64"/>
-      <c r="BY26" s="85"/>
-      <c r="BZ26" s="86"/>
+      <c r="BY26" s="122"/>
+      <c r="BZ26" s="127"/>
       <c r="CA26" s="64"/>
       <c r="CB26" s="64"/>
       <c r="CC26" s="64"/>
       <c r="CD26" s="64"/>
       <c r="CE26" s="64"/>
-      <c r="CF26" s="85"/>
-      <c r="CG26" s="86"/>
+      <c r="CF26" s="122"/>
+      <c r="CG26" s="127"/>
       <c r="CH26" s="64"/>
       <c r="CI26" s="64"/>
       <c r="CJ26" s="64"/>
       <c r="CK26" s="64"/>
       <c r="CL26" s="64"/>
-      <c r="CM26" s="85"/>
-      <c r="CN26" s="86"/>
+      <c r="CM26" s="122"/>
+      <c r="CN26" s="127"/>
       <c r="CO26" s="64"/>
       <c r="CP26" s="64"/>
       <c r="CQ26" s="64"/>
       <c r="CR26" s="64"/>
       <c r="CS26" s="64"/>
-      <c r="CT26" s="85"/>
-      <c r="CU26" s="86"/>
+      <c r="CT26" s="122"/>
+      <c r="CU26" s="127"/>
       <c r="CV26" s="64"/>
       <c r="CW26" s="64"/>
       <c r="CX26" s="64"/>
       <c r="CY26" s="64"/>
       <c r="CZ26" s="64"/>
-      <c r="DA26" s="85"/>
-      <c r="DB26" s="107"/>
+      <c r="DA26" s="122"/>
+      <c r="DB26" s="123"/>
     </row>
     <row r="27" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
       <c r="B27" s="69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="21"/>
@@ -5596,110 +5577,110 @@
         <f>AR5</f>
         <v>45369</v>
       </c>
-      <c r="G27" s="114"/>
+      <c r="G27" s="96"/>
       <c r="H27" s="64"/>
       <c r="I27" s="64"/>
       <c r="J27" s="64"/>
       <c r="K27" s="64"/>
       <c r="L27" s="64"/>
       <c r="M27" s="64"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="86"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="104"/>
       <c r="P27" s="64"/>
       <c r="Q27" s="64"/>
       <c r="R27" s="64"/>
       <c r="S27" s="64"/>
       <c r="T27" s="64"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="86"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="104"/>
       <c r="W27" s="64"/>
       <c r="X27" s="64"/>
       <c r="Y27" s="64"/>
       <c r="Z27" s="64"/>
       <c r="AA27" s="64"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="86"/>
+      <c r="AB27" s="103"/>
+      <c r="AC27" s="104"/>
       <c r="AD27" s="64"/>
       <c r="AE27" s="64"/>
       <c r="AF27" s="64"/>
       <c r="AG27" s="80"/>
       <c r="AH27" s="80"/>
-      <c r="AI27" s="85"/>
-      <c r="AJ27" s="86"/>
+      <c r="AI27" s="103"/>
+      <c r="AJ27" s="104"/>
       <c r="AL27" s="78"/>
       <c r="AM27" s="78"/>
       <c r="AN27" s="78"/>
       <c r="AO27" s="78"/>
-      <c r="AP27" s="85"/>
-      <c r="AQ27" s="86"/>
+      <c r="AP27" s="103"/>
+      <c r="AQ27" s="104"/>
       <c r="AR27" s="75"/>
       <c r="AS27" s="64"/>
       <c r="AT27" s="64"/>
       <c r="AU27" s="64"/>
       <c r="AV27" s="64"/>
-      <c r="AW27" s="85"/>
-      <c r="AX27" s="86"/>
+      <c r="AW27" s="103"/>
+      <c r="AX27" s="104"/>
       <c r="AY27" s="64"/>
       <c r="AZ27" s="64"/>
       <c r="BA27" s="64"/>
       <c r="BB27" s="64"/>
       <c r="BC27" s="64"/>
-      <c r="BD27" s="102"/>
-      <c r="BE27" s="102"/>
+      <c r="BD27" s="103"/>
+      <c r="BE27" s="104"/>
       <c r="BF27" s="64"/>
       <c r="BG27" s="64"/>
       <c r="BH27" s="64"/>
       <c r="BI27" s="64"/>
       <c r="BJ27" s="64"/>
-      <c r="BK27" s="85"/>
-      <c r="BL27" s="86"/>
+      <c r="BK27" s="122"/>
+      <c r="BL27" s="127"/>
       <c r="BM27" s="64"/>
       <c r="BN27" s="64"/>
       <c r="BO27" s="64"/>
       <c r="BP27" s="64"/>
       <c r="BQ27" s="64"/>
-      <c r="BR27" s="85"/>
-      <c r="BS27" s="86"/>
+      <c r="BR27" s="122"/>
+      <c r="BS27" s="127"/>
       <c r="BT27" s="64"/>
       <c r="BU27" s="64"/>
       <c r="BV27" s="64"/>
       <c r="BW27" s="64"/>
       <c r="BX27" s="64"/>
-      <c r="BY27" s="85"/>
-      <c r="BZ27" s="86"/>
+      <c r="BY27" s="122"/>
+      <c r="BZ27" s="127"/>
       <c r="CA27" s="64"/>
       <c r="CB27" s="64"/>
       <c r="CC27" s="64"/>
       <c r="CD27" s="64"/>
       <c r="CE27" s="64"/>
-      <c r="CF27" s="85"/>
-      <c r="CG27" s="86"/>
+      <c r="CF27" s="122"/>
+      <c r="CG27" s="127"/>
       <c r="CH27" s="64"/>
       <c r="CI27" s="64"/>
       <c r="CJ27" s="64"/>
       <c r="CK27" s="64"/>
       <c r="CL27" s="64"/>
-      <c r="CM27" s="85"/>
-      <c r="CN27" s="86"/>
+      <c r="CM27" s="122"/>
+      <c r="CN27" s="127"/>
       <c r="CO27" s="64"/>
       <c r="CP27" s="64"/>
       <c r="CQ27" s="64"/>
       <c r="CR27" s="64"/>
       <c r="CS27" s="64"/>
-      <c r="CT27" s="85"/>
-      <c r="CU27" s="86"/>
+      <c r="CT27" s="122"/>
+      <c r="CU27" s="127"/>
       <c r="CV27" s="64"/>
       <c r="CW27" s="64"/>
       <c r="CX27" s="64"/>
       <c r="CY27" s="64"/>
       <c r="CZ27" s="64"/>
-      <c r="DA27" s="85"/>
-      <c r="DB27" s="107"/>
+      <c r="DA27" s="122"/>
+      <c r="DB27" s="123"/>
     </row>
     <row r="28" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="21"/>
@@ -5711,223 +5692,223 @@
         <f>AV5</f>
         <v>45373</v>
       </c>
-      <c r="G28" s="115"/>
+      <c r="G28" s="97"/>
       <c r="H28" s="64"/>
       <c r="I28" s="64"/>
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
       <c r="L28" s="64"/>
       <c r="M28" s="64"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="86"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="104"/>
       <c r="P28" s="64"/>
       <c r="Q28" s="64"/>
       <c r="R28" s="64"/>
       <c r="S28" s="64"/>
       <c r="T28" s="64"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="86"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="104"/>
       <c r="W28" s="64"/>
       <c r="X28" s="64"/>
       <c r="Y28" s="64"/>
       <c r="Z28" s="64"/>
       <c r="AA28" s="64"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="86"/>
+      <c r="AB28" s="103"/>
+      <c r="AC28" s="104"/>
       <c r="AD28" s="64"/>
       <c r="AE28" s="64"/>
       <c r="AF28" s="64"/>
       <c r="AG28" s="64"/>
       <c r="AH28" s="64"/>
-      <c r="AI28" s="85"/>
-      <c r="AJ28" s="86"/>
+      <c r="AI28" s="103"/>
+      <c r="AJ28" s="104"/>
       <c r="AK28" s="64"/>
       <c r="AL28" s="64"/>
       <c r="AM28" s="64"/>
       <c r="AN28" s="64"/>
       <c r="AO28" s="64"/>
-      <c r="AP28" s="85"/>
-      <c r="AQ28" s="86"/>
+      <c r="AP28" s="103"/>
+      <c r="AQ28" s="104"/>
       <c r="AR28" s="64"/>
-      <c r="AS28" s="81"/>
-      <c r="AT28" s="89"/>
-      <c r="AU28" s="89"/>
-      <c r="AV28" s="82"/>
-      <c r="AW28" s="85"/>
-      <c r="AX28" s="86"/>
+      <c r="AS28" s="98"/>
+      <c r="AT28" s="99"/>
+      <c r="AU28" s="99"/>
+      <c r="AV28" s="100"/>
+      <c r="AW28" s="103"/>
+      <c r="AX28" s="104"/>
       <c r="AY28" s="78"/>
       <c r="AZ28" s="78"/>
       <c r="BA28" s="78"/>
       <c r="BB28" s="78"/>
       <c r="BC28" s="78"/>
-      <c r="BD28" s="102"/>
-      <c r="BE28" s="102"/>
+      <c r="BD28" s="103"/>
+      <c r="BE28" s="104"/>
       <c r="BF28" s="78"/>
       <c r="BG28" s="78"/>
       <c r="BH28" s="78"/>
       <c r="BI28" s="78"/>
       <c r="BJ28" s="64"/>
-      <c r="BK28" s="85"/>
-      <c r="BL28" s="86"/>
+      <c r="BK28" s="122"/>
+      <c r="BL28" s="127"/>
       <c r="BM28" s="64"/>
       <c r="BN28" s="64"/>
       <c r="BO28" s="64"/>
       <c r="BP28" s="64"/>
       <c r="BQ28" s="64"/>
-      <c r="BR28" s="85"/>
-      <c r="BS28" s="86"/>
+      <c r="BR28" s="122"/>
+      <c r="BS28" s="127"/>
       <c r="BT28" s="64"/>
       <c r="BU28" s="64"/>
       <c r="BV28" s="64"/>
       <c r="BW28" s="64"/>
       <c r="BX28" s="64"/>
-      <c r="BY28" s="85"/>
-      <c r="BZ28" s="86"/>
+      <c r="BY28" s="122"/>
+      <c r="BZ28" s="127"/>
       <c r="CA28" s="64"/>
       <c r="CB28" s="64"/>
       <c r="CC28" s="64"/>
       <c r="CD28" s="64"/>
       <c r="CE28" s="64"/>
-      <c r="CF28" s="85"/>
-      <c r="CG28" s="86"/>
+      <c r="CF28" s="122"/>
+      <c r="CG28" s="127"/>
       <c r="CH28" s="64"/>
       <c r="CI28" s="64"/>
       <c r="CJ28" s="64"/>
       <c r="CK28" s="64"/>
       <c r="CL28" s="64"/>
-      <c r="CM28" s="85"/>
-      <c r="CN28" s="86"/>
+      <c r="CM28" s="122"/>
+      <c r="CN28" s="127"/>
       <c r="CO28" s="64"/>
       <c r="CP28" s="64"/>
       <c r="CQ28" s="64"/>
       <c r="CR28" s="64"/>
       <c r="CS28" s="64"/>
-      <c r="CT28" s="85"/>
-      <c r="CU28" s="86"/>
+      <c r="CT28" s="122"/>
+      <c r="CU28" s="127"/>
       <c r="CV28" s="64"/>
       <c r="CW28" s="64"/>
       <c r="CX28" s="64"/>
       <c r="CY28" s="64"/>
       <c r="CZ28" s="64"/>
-      <c r="DA28" s="85"/>
-      <c r="DB28" s="107"/>
+      <c r="DA28" s="122"/>
+      <c r="DB28" s="123"/>
     </row>
     <row r="29" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="23"/>
       <c r="E29" s="55"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="113"/>
+      <c r="G29" s="95"/>
       <c r="H29" s="64"/>
       <c r="I29" s="64"/>
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
       <c r="L29" s="64"/>
       <c r="M29" s="64"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="86"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="104"/>
       <c r="P29" s="64"/>
       <c r="Q29" s="64"/>
       <c r="R29" s="64"/>
       <c r="S29" s="64"/>
       <c r="T29" s="64"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="86"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="104"/>
       <c r="W29" s="64"/>
       <c r="X29" s="64"/>
       <c r="Y29" s="64"/>
       <c r="Z29" s="64"/>
       <c r="AA29" s="64"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="86"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="104"/>
       <c r="AD29" s="64"/>
       <c r="AE29" s="64"/>
       <c r="AF29" s="64"/>
       <c r="AG29" s="64"/>
       <c r="AH29" s="64"/>
-      <c r="AI29" s="85"/>
-      <c r="AJ29" s="86"/>
+      <c r="AI29" s="103"/>
+      <c r="AJ29" s="104"/>
       <c r="AK29" s="64"/>
       <c r="AL29" s="80"/>
       <c r="AM29" s="80"/>
       <c r="AN29" s="80"/>
       <c r="AO29" s="80"/>
-      <c r="AP29" s="85"/>
-      <c r="AQ29" s="86"/>
+      <c r="AP29" s="103"/>
+      <c r="AQ29" s="104"/>
       <c r="AR29" s="64"/>
       <c r="AS29" s="64"/>
       <c r="AT29" s="64"/>
       <c r="AU29" s="64"/>
       <c r="AV29" s="64"/>
-      <c r="AW29" s="85"/>
-      <c r="AX29" s="86"/>
-      <c r="AY29" s="90"/>
-      <c r="AZ29" s="90"/>
-      <c r="BA29" s="90"/>
-      <c r="BB29" s="90"/>
-      <c r="BC29" s="90"/>
-      <c r="BD29" s="90"/>
-      <c r="BE29" s="90"/>
-      <c r="BF29" s="90"/>
-      <c r="BG29" s="90"/>
-      <c r="BH29" s="90"/>
-      <c r="BI29" s="90"/>
+      <c r="AW29" s="103"/>
+      <c r="AX29" s="104"/>
+      <c r="AY29" s="129"/>
+      <c r="AZ29" s="130"/>
+      <c r="BA29" s="130"/>
+      <c r="BB29" s="130"/>
+      <c r="BC29" s="131"/>
+      <c r="BD29" s="103"/>
+      <c r="BE29" s="104"/>
+      <c r="BF29" s="128"/>
+      <c r="BG29" s="128"/>
+      <c r="BH29" s="128"/>
+      <c r="BI29" s="128"/>
       <c r="BJ29" s="64"/>
-      <c r="BK29" s="85"/>
-      <c r="BL29" s="86"/>
+      <c r="BK29" s="122"/>
+      <c r="BL29" s="127"/>
       <c r="BM29" s="64"/>
       <c r="BN29" s="64"/>
       <c r="BO29" s="64"/>
       <c r="BP29" s="64"/>
       <c r="BQ29" s="64"/>
-      <c r="BR29" s="85"/>
-      <c r="BS29" s="86"/>
+      <c r="BR29" s="122"/>
+      <c r="BS29" s="127"/>
       <c r="BT29" s="64"/>
       <c r="BU29" s="64"/>
       <c r="BV29" s="64"/>
       <c r="BW29" s="64"/>
       <c r="BX29" s="64"/>
-      <c r="BY29" s="85"/>
-      <c r="BZ29" s="86"/>
+      <c r="BY29" s="122"/>
+      <c r="BZ29" s="127"/>
       <c r="CA29" s="64"/>
       <c r="CB29" s="64"/>
       <c r="CC29" s="64"/>
       <c r="CD29" s="64"/>
       <c r="CE29" s="64"/>
-      <c r="CF29" s="85"/>
-      <c r="CG29" s="86"/>
+      <c r="CF29" s="122"/>
+      <c r="CG29" s="127"/>
       <c r="CH29" s="64"/>
       <c r="CI29" s="64"/>
       <c r="CJ29" s="64"/>
       <c r="CK29" s="64"/>
       <c r="CL29" s="64"/>
-      <c r="CM29" s="85"/>
-      <c r="CN29" s="86"/>
+      <c r="CM29" s="122"/>
+      <c r="CN29" s="127"/>
       <c r="CO29" s="64"/>
       <c r="CP29" s="64"/>
       <c r="CQ29" s="64"/>
       <c r="CR29" s="64"/>
       <c r="CS29" s="64"/>
-      <c r="CT29" s="85"/>
-      <c r="CU29" s="86"/>
+      <c r="CT29" s="122"/>
+      <c r="CU29" s="127"/>
       <c r="CV29" s="64"/>
       <c r="CW29" s="64"/>
       <c r="CX29" s="64"/>
       <c r="CY29" s="64"/>
       <c r="CZ29" s="64"/>
-      <c r="DA29" s="85"/>
-      <c r="DB29" s="107"/>
+      <c r="DA29" s="122"/>
+      <c r="DB29" s="123"/>
     </row>
     <row r="30" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
       <c r="B30" s="70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="24"/>
@@ -5939,111 +5920,111 @@
         <f>AY5</f>
         <v>45376</v>
       </c>
-      <c r="G30" s="114"/>
+      <c r="G30" s="96"/>
       <c r="H30" s="64"/>
       <c r="I30" s="64"/>
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
       <c r="L30" s="64"/>
       <c r="M30" s="64"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="86"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="104"/>
       <c r="P30" s="64"/>
       <c r="Q30" s="64"/>
       <c r="R30" s="64"/>
       <c r="S30" s="64"/>
       <c r="T30" s="64"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="86"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="104"/>
       <c r="W30" s="64"/>
       <c r="X30" s="64"/>
       <c r="Y30" s="64"/>
       <c r="Z30" s="64"/>
       <c r="AA30" s="64"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="86"/>
+      <c r="AB30" s="103"/>
+      <c r="AC30" s="104"/>
       <c r="AD30" s="64"/>
       <c r="AE30" s="64"/>
       <c r="AF30" s="64"/>
       <c r="AG30" s="64"/>
       <c r="AH30" s="64"/>
-      <c r="AI30" s="85"/>
-      <c r="AJ30" s="86"/>
+      <c r="AI30" s="103"/>
+      <c r="AJ30" s="104"/>
       <c r="AK30" s="64"/>
       <c r="AL30" s="64"/>
       <c r="AM30" s="64"/>
       <c r="AN30" s="64"/>
       <c r="AO30" s="64"/>
-      <c r="AP30" s="85"/>
-      <c r="AQ30" s="86"/>
+      <c r="AP30" s="103"/>
+      <c r="AQ30" s="104"/>
       <c r="AR30" s="64"/>
       <c r="AS30" s="64"/>
       <c r="AT30" s="64"/>
       <c r="AU30" s="64"/>
       <c r="AV30" s="64"/>
-      <c r="AW30" s="85"/>
-      <c r="AX30" s="86"/>
-      <c r="AY30" s="103"/>
+      <c r="AW30" s="103"/>
+      <c r="AX30" s="104"/>
+      <c r="AY30" s="81"/>
       <c r="AZ30" s="80"/>
       <c r="BA30" s="80"/>
       <c r="BB30" s="80"/>
       <c r="BC30" s="80"/>
-      <c r="BD30" s="83"/>
-      <c r="BE30" s="84"/>
+      <c r="BD30" s="103"/>
+      <c r="BE30" s="104"/>
       <c r="BF30" s="80"/>
       <c r="BG30" s="80"/>
       <c r="BH30" s="80"/>
       <c r="BI30" s="80"/>
       <c r="BJ30" s="64"/>
-      <c r="BK30" s="85"/>
-      <c r="BL30" s="86"/>
+      <c r="BK30" s="122"/>
+      <c r="BL30" s="127"/>
       <c r="BM30" s="64"/>
       <c r="BN30" s="64"/>
       <c r="BO30" s="64"/>
       <c r="BP30" s="64"/>
       <c r="BQ30" s="64"/>
-      <c r="BR30" s="85"/>
-      <c r="BS30" s="86"/>
+      <c r="BR30" s="122"/>
+      <c r="BS30" s="127"/>
       <c r="BT30" s="64"/>
       <c r="BU30" s="64"/>
       <c r="BV30" s="64"/>
       <c r="BW30" s="64"/>
       <c r="BX30" s="64"/>
-      <c r="BY30" s="85"/>
-      <c r="BZ30" s="86"/>
+      <c r="BY30" s="122"/>
+      <c r="BZ30" s="127"/>
       <c r="CA30" s="64"/>
       <c r="CB30" s="64"/>
       <c r="CC30" s="64"/>
       <c r="CD30" s="64"/>
       <c r="CE30" s="64"/>
-      <c r="CF30" s="85"/>
-      <c r="CG30" s="86"/>
+      <c r="CF30" s="122"/>
+      <c r="CG30" s="127"/>
       <c r="CH30" s="64"/>
       <c r="CI30" s="64"/>
       <c r="CJ30" s="64"/>
       <c r="CK30" s="64"/>
       <c r="CL30" s="64"/>
-      <c r="CM30" s="85"/>
-      <c r="CN30" s="86"/>
+      <c r="CM30" s="122"/>
+      <c r="CN30" s="127"/>
       <c r="CO30" s="64"/>
       <c r="CP30" s="64"/>
       <c r="CQ30" s="64"/>
       <c r="CR30" s="64"/>
       <c r="CS30" s="64"/>
-      <c r="CT30" s="85"/>
-      <c r="CU30" s="86"/>
+      <c r="CT30" s="122"/>
+      <c r="CU30" s="127"/>
       <c r="CV30" s="64"/>
       <c r="CW30" s="64"/>
       <c r="CX30" s="64"/>
       <c r="CY30" s="64"/>
       <c r="CZ30" s="64"/>
-      <c r="DA30" s="85"/>
-      <c r="DB30" s="107"/>
+      <c r="DA30" s="122"/>
+      <c r="DB30" s="123"/>
     </row>
     <row r="31" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
       <c r="B31" s="70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="24"/>
@@ -6055,111 +6036,111 @@
         <f>AZ5</f>
         <v>45377</v>
       </c>
-      <c r="G31" s="114"/>
+      <c r="G31" s="96"/>
       <c r="H31" s="64"/>
       <c r="I31" s="64"/>
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
       <c r="L31" s="64"/>
       <c r="M31" s="64"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="86"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="104"/>
       <c r="P31" s="64"/>
       <c r="Q31" s="64"/>
       <c r="R31" s="64"/>
       <c r="S31" s="64"/>
       <c r="T31" s="64"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="86"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="104"/>
       <c r="W31" s="64"/>
       <c r="X31" s="64"/>
       <c r="Y31" s="64"/>
       <c r="Z31" s="64"/>
       <c r="AA31" s="64"/>
-      <c r="AB31" s="85"/>
-      <c r="AC31" s="86"/>
+      <c r="AB31" s="103"/>
+      <c r="AC31" s="104"/>
       <c r="AD31" s="64"/>
       <c r="AE31" s="64"/>
       <c r="AF31" s="64"/>
       <c r="AG31" s="64"/>
       <c r="AH31" s="64"/>
-      <c r="AI31" s="85"/>
-      <c r="AJ31" s="86"/>
+      <c r="AI31" s="103"/>
+      <c r="AJ31" s="104"/>
       <c r="AK31" s="64"/>
       <c r="AL31" s="64"/>
       <c r="AM31" s="64"/>
       <c r="AN31" s="64"/>
       <c r="AO31" s="64"/>
-      <c r="AP31" s="85"/>
-      <c r="AQ31" s="86"/>
+      <c r="AP31" s="103"/>
+      <c r="AQ31" s="104"/>
       <c r="AR31" s="64"/>
       <c r="AS31" s="64"/>
       <c r="AT31" s="64"/>
       <c r="AU31" s="64"/>
       <c r="AV31" s="64"/>
-      <c r="AW31" s="85"/>
-      <c r="AX31" s="86"/>
+      <c r="AW31" s="103"/>
+      <c r="AX31" s="104"/>
       <c r="AY31" s="64"/>
       <c r="AZ31" s="75"/>
       <c r="BA31" s="64"/>
       <c r="BB31" s="64"/>
       <c r="BC31" s="64"/>
-      <c r="BD31" s="85"/>
-      <c r="BE31" s="86"/>
+      <c r="BD31" s="103"/>
+      <c r="BE31" s="104"/>
       <c r="BF31" s="64"/>
       <c r="BG31" s="64"/>
       <c r="BH31" s="64"/>
       <c r="BI31" s="64"/>
       <c r="BJ31" s="64"/>
-      <c r="BK31" s="85"/>
-      <c r="BL31" s="86"/>
+      <c r="BK31" s="122"/>
+      <c r="BL31" s="127"/>
       <c r="BM31" s="64"/>
       <c r="BN31" s="64"/>
       <c r="BO31" s="64"/>
       <c r="BP31" s="64"/>
       <c r="BQ31" s="64"/>
-      <c r="BR31" s="85"/>
-      <c r="BS31" s="86"/>
+      <c r="BR31" s="122"/>
+      <c r="BS31" s="127"/>
       <c r="BT31" s="64"/>
       <c r="BU31" s="64"/>
       <c r="BV31" s="64"/>
       <c r="BW31" s="64"/>
       <c r="BX31" s="64"/>
-      <c r="BY31" s="85"/>
-      <c r="BZ31" s="86"/>
+      <c r="BY31" s="122"/>
+      <c r="BZ31" s="127"/>
       <c r="CA31" s="64"/>
       <c r="CB31" s="64"/>
       <c r="CC31" s="64"/>
       <c r="CD31" s="64"/>
       <c r="CE31" s="64"/>
-      <c r="CF31" s="85"/>
-      <c r="CG31" s="86"/>
+      <c r="CF31" s="122"/>
+      <c r="CG31" s="127"/>
       <c r="CH31" s="64"/>
       <c r="CI31" s="64"/>
       <c r="CJ31" s="64"/>
       <c r="CK31" s="64"/>
       <c r="CL31" s="64"/>
-      <c r="CM31" s="85"/>
-      <c r="CN31" s="86"/>
+      <c r="CM31" s="122"/>
+      <c r="CN31" s="127"/>
       <c r="CO31" s="64"/>
       <c r="CP31" s="64"/>
       <c r="CQ31" s="64"/>
       <c r="CR31" s="64"/>
       <c r="CS31" s="64"/>
-      <c r="CT31" s="85"/>
-      <c r="CU31" s="86"/>
+      <c r="CT31" s="122"/>
+      <c r="CU31" s="127"/>
       <c r="CV31" s="64"/>
       <c r="CW31" s="64"/>
       <c r="CX31" s="64"/>
       <c r="CY31" s="64"/>
       <c r="CZ31" s="64"/>
-      <c r="DA31" s="85"/>
-      <c r="DB31" s="107"/>
+      <c r="DA31" s="122"/>
+      <c r="DB31" s="123"/>
     </row>
     <row r="32" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
       <c r="B32" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="24"/>
@@ -6171,111 +6152,111 @@
         <f>BA5</f>
         <v>45378</v>
       </c>
-      <c r="G32" s="114"/>
+      <c r="G32" s="96"/>
       <c r="H32" s="64"/>
       <c r="I32" s="64"/>
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
       <c r="L32" s="64"/>
       <c r="M32" s="64"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="86"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="104"/>
       <c r="P32" s="64"/>
       <c r="Q32" s="64"/>
       <c r="R32" s="64"/>
       <c r="S32" s="64"/>
       <c r="T32" s="64"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="86"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="104"/>
       <c r="W32" s="64"/>
       <c r="X32" s="64"/>
       <c r="Y32" s="64"/>
       <c r="Z32" s="64"/>
       <c r="AA32" s="64"/>
-      <c r="AB32" s="85"/>
-      <c r="AC32" s="86"/>
+      <c r="AB32" s="103"/>
+      <c r="AC32" s="104"/>
       <c r="AD32" s="64"/>
       <c r="AE32" s="64"/>
       <c r="AF32" s="64"/>
       <c r="AG32" s="64"/>
       <c r="AH32" s="64"/>
-      <c r="AI32" s="85"/>
-      <c r="AJ32" s="86"/>
+      <c r="AI32" s="103"/>
+      <c r="AJ32" s="104"/>
       <c r="AK32" s="64"/>
       <c r="AL32" s="64"/>
       <c r="AM32" s="64"/>
       <c r="AN32" s="64"/>
       <c r="AO32" s="64"/>
-      <c r="AP32" s="85"/>
-      <c r="AQ32" s="86"/>
+      <c r="AP32" s="103"/>
+      <c r="AQ32" s="104"/>
       <c r="AR32" s="64"/>
       <c r="AS32" s="64"/>
       <c r="AT32" s="64"/>
       <c r="AU32" s="64"/>
       <c r="AV32" s="64"/>
-      <c r="AW32" s="85"/>
-      <c r="AX32" s="86"/>
+      <c r="AW32" s="103"/>
+      <c r="AX32" s="104"/>
       <c r="AY32" s="64"/>
       <c r="AZ32" s="64"/>
       <c r="BA32" s="75"/>
       <c r="BB32" s="64"/>
       <c r="BC32" s="64"/>
-      <c r="BD32" s="85"/>
-      <c r="BE32" s="86"/>
+      <c r="BD32" s="103"/>
+      <c r="BE32" s="104"/>
       <c r="BF32" s="64"/>
       <c r="BG32" s="64"/>
       <c r="BH32" s="64"/>
       <c r="BI32" s="64"/>
       <c r="BJ32" s="64"/>
-      <c r="BK32" s="85"/>
-      <c r="BL32" s="86"/>
+      <c r="BK32" s="122"/>
+      <c r="BL32" s="127"/>
       <c r="BM32" s="64"/>
       <c r="BN32" s="64"/>
       <c r="BO32" s="64"/>
       <c r="BP32" s="64"/>
       <c r="BQ32" s="64"/>
-      <c r="BR32" s="85"/>
-      <c r="BS32" s="86"/>
+      <c r="BR32" s="122"/>
+      <c r="BS32" s="127"/>
       <c r="BT32" s="64"/>
       <c r="BU32" s="64"/>
       <c r="BV32" s="64"/>
       <c r="BW32" s="64"/>
       <c r="BX32" s="64"/>
-      <c r="BY32" s="85"/>
-      <c r="BZ32" s="86"/>
+      <c r="BY32" s="122"/>
+      <c r="BZ32" s="127"/>
       <c r="CA32" s="64"/>
       <c r="CB32" s="64"/>
       <c r="CC32" s="64"/>
       <c r="CD32" s="64"/>
       <c r="CE32" s="64"/>
-      <c r="CF32" s="85"/>
-      <c r="CG32" s="86"/>
+      <c r="CF32" s="122"/>
+      <c r="CG32" s="127"/>
       <c r="CH32" s="64"/>
       <c r="CI32" s="64"/>
       <c r="CJ32" s="64"/>
       <c r="CK32" s="64"/>
       <c r="CL32" s="64"/>
-      <c r="CM32" s="85"/>
-      <c r="CN32" s="86"/>
+      <c r="CM32" s="122"/>
+      <c r="CN32" s="127"/>
       <c r="CO32" s="64"/>
       <c r="CP32" s="64"/>
       <c r="CQ32" s="64"/>
       <c r="CR32" s="64"/>
       <c r="CS32" s="64"/>
-      <c r="CT32" s="85"/>
-      <c r="CU32" s="86"/>
+      <c r="CT32" s="122"/>
+      <c r="CU32" s="127"/>
       <c r="CV32" s="64"/>
       <c r="CW32" s="64"/>
       <c r="CX32" s="64"/>
       <c r="CY32" s="64"/>
       <c r="CZ32" s="64"/>
-      <c r="DA32" s="85"/>
-      <c r="DB32" s="107"/>
+      <c r="DA32" s="122"/>
+      <c r="DB32" s="123"/>
     </row>
     <row r="33" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29"/>
       <c r="B33" s="70" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="42"/>
       <c r="D33" s="24"/>
@@ -6287,855 +6268,702 @@
         <f>BB5</f>
         <v>45379</v>
       </c>
-      <c r="G33" s="114"/>
+      <c r="G33" s="96"/>
       <c r="H33" s="64"/>
       <c r="I33" s="64"/>
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
       <c r="L33" s="64"/>
       <c r="M33" s="64"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="86"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="104"/>
       <c r="P33" s="64"/>
       <c r="Q33" s="64"/>
       <c r="R33" s="64"/>
       <c r="S33" s="64"/>
       <c r="T33" s="64"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="86"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="104"/>
       <c r="W33" s="64"/>
       <c r="X33" s="64"/>
       <c r="Y33" s="64"/>
       <c r="Z33" s="64"/>
       <c r="AA33" s="64"/>
-      <c r="AB33" s="85"/>
-      <c r="AC33" s="86"/>
+      <c r="AB33" s="103"/>
+      <c r="AC33" s="104"/>
       <c r="AD33" s="64"/>
       <c r="AE33" s="64"/>
       <c r="AF33" s="64"/>
       <c r="AG33" s="64"/>
       <c r="AH33" s="64"/>
-      <c r="AI33" s="85"/>
-      <c r="AJ33" s="86"/>
+      <c r="AI33" s="103"/>
+      <c r="AJ33" s="104"/>
       <c r="AK33" s="64"/>
       <c r="AL33" s="64"/>
       <c r="AM33" s="64"/>
       <c r="AN33" s="64"/>
       <c r="AO33" s="64"/>
-      <c r="AP33" s="85"/>
-      <c r="AQ33" s="86"/>
+      <c r="AP33" s="103"/>
+      <c r="AQ33" s="104"/>
       <c r="AR33" s="64"/>
       <c r="AS33" s="64"/>
       <c r="AT33" s="64"/>
       <c r="AU33" s="64"/>
       <c r="AV33" s="64"/>
-      <c r="AW33" s="85"/>
-      <c r="AX33" s="86"/>
+      <c r="AW33" s="103"/>
+      <c r="AX33" s="104"/>
       <c r="AY33" s="64"/>
       <c r="AZ33" s="64"/>
       <c r="BA33" s="64"/>
       <c r="BB33" s="75"/>
       <c r="BC33" s="64"/>
-      <c r="BD33" s="85"/>
-      <c r="BE33" s="86"/>
+      <c r="BD33" s="103"/>
+      <c r="BE33" s="104"/>
       <c r="BF33" s="64"/>
       <c r="BG33" s="64"/>
       <c r="BH33" s="64"/>
       <c r="BI33" s="64"/>
       <c r="BJ33" s="64"/>
-      <c r="BK33" s="85"/>
-      <c r="BL33" s="86"/>
+      <c r="BK33" s="122"/>
+      <c r="BL33" s="127"/>
       <c r="BM33" s="64"/>
       <c r="BN33" s="64"/>
       <c r="BO33" s="64"/>
       <c r="BP33" s="64"/>
       <c r="BQ33" s="64"/>
-      <c r="BR33" s="85"/>
-      <c r="BS33" s="86"/>
+      <c r="BR33" s="122"/>
+      <c r="BS33" s="127"/>
       <c r="BT33" s="64"/>
       <c r="BU33" s="64"/>
       <c r="BV33" s="64"/>
       <c r="BW33" s="64"/>
       <c r="BX33" s="64"/>
-      <c r="BY33" s="85"/>
-      <c r="BZ33" s="86"/>
+      <c r="BY33" s="122"/>
+      <c r="BZ33" s="127"/>
       <c r="CA33" s="64"/>
       <c r="CB33" s="64"/>
       <c r="CC33" s="64"/>
       <c r="CD33" s="64"/>
       <c r="CE33" s="64"/>
-      <c r="CF33" s="85"/>
-      <c r="CG33" s="86"/>
+      <c r="CF33" s="122"/>
+      <c r="CG33" s="127"/>
       <c r="CH33" s="64"/>
       <c r="CI33" s="64"/>
       <c r="CJ33" s="64"/>
       <c r="CK33" s="64"/>
       <c r="CL33" s="64"/>
-      <c r="CM33" s="85"/>
-      <c r="CN33" s="86"/>
+      <c r="CM33" s="122"/>
+      <c r="CN33" s="127"/>
       <c r="CO33" s="64"/>
       <c r="CP33" s="64"/>
       <c r="CQ33" s="64"/>
       <c r="CR33" s="64"/>
       <c r="CS33" s="64"/>
-      <c r="CT33" s="85"/>
-      <c r="CU33" s="86"/>
+      <c r="CT33" s="122"/>
+      <c r="CU33" s="127"/>
       <c r="CV33" s="64"/>
       <c r="CW33" s="64"/>
       <c r="CX33" s="64"/>
       <c r="CY33" s="64"/>
       <c r="CZ33" s="64"/>
-      <c r="DA33" s="85"/>
-      <c r="DB33" s="107"/>
+      <c r="DA33" s="122"/>
+      <c r="DB33" s="123"/>
     </row>
     <row r="34" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="115"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="86"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="85"/>
-      <c r="AC34" s="86"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="64"/>
-      <c r="AI34" s="85"/>
-      <c r="AJ34" s="86"/>
-      <c r="AK34" s="64"/>
-      <c r="AL34" s="64"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="64"/>
-      <c r="AO34" s="64"/>
-      <c r="AP34" s="85"/>
-      <c r="AQ34" s="86"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
-      <c r="AU34" s="64"/>
-      <c r="AV34" s="64"/>
-      <c r="AW34" s="85"/>
-      <c r="AX34" s="86"/>
-      <c r="AY34" s="64"/>
-      <c r="AZ34" s="64"/>
-      <c r="BA34" s="64"/>
-      <c r="BB34" s="64"/>
-      <c r="BC34" s="64"/>
-      <c r="BD34" s="85"/>
-      <c r="BE34" s="86"/>
-      <c r="BF34" s="64"/>
-      <c r="BG34" s="64"/>
-      <c r="BH34" s="64"/>
-      <c r="BI34" s="64"/>
-      <c r="BJ34" s="64"/>
-      <c r="BK34" s="87"/>
-      <c r="BL34" s="88"/>
-      <c r="BM34" s="64"/>
-      <c r="BN34" s="64"/>
-      <c r="BO34" s="64"/>
-      <c r="BP34" s="64"/>
-      <c r="BQ34" s="64"/>
-      <c r="BR34" s="87"/>
-      <c r="BS34" s="88"/>
-      <c r="BT34" s="64"/>
-      <c r="BU34" s="64"/>
-      <c r="BV34" s="64"/>
-      <c r="BW34" s="64"/>
-      <c r="BX34" s="64"/>
-      <c r="BY34" s="87"/>
-      <c r="BZ34" s="88"/>
-      <c r="CA34" s="64"/>
-      <c r="CB34" s="64"/>
-      <c r="CC34" s="64"/>
-      <c r="CD34" s="64"/>
-      <c r="CE34" s="64"/>
-      <c r="CF34" s="87"/>
-      <c r="CG34" s="88"/>
-      <c r="CH34" s="64"/>
-      <c r="CI34" s="64"/>
-      <c r="CJ34" s="64"/>
-      <c r="CK34" s="64"/>
-      <c r="CL34" s="64"/>
-      <c r="CM34" s="87"/>
-      <c r="CN34" s="88"/>
-      <c r="CO34" s="64"/>
-      <c r="CP34" s="64"/>
-      <c r="CQ34" s="64"/>
-      <c r="CR34" s="64"/>
-      <c r="CS34" s="64"/>
-      <c r="CT34" s="87"/>
-      <c r="CU34" s="88"/>
-      <c r="CV34" s="64"/>
-      <c r="CW34" s="64"/>
-      <c r="CX34" s="64"/>
-      <c r="CY34" s="64"/>
-      <c r="CZ34" s="64"/>
-      <c r="DA34" s="85"/>
-      <c r="DB34" s="107"/>
+      <c r="A34" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="87"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="104"/>
+      <c r="W34" s="78"/>
+      <c r="X34" s="78"/>
+      <c r="Y34" s="78"/>
+      <c r="Z34" s="78"/>
+      <c r="AA34" s="78"/>
+      <c r="AB34" s="103"/>
+      <c r="AC34" s="104"/>
+      <c r="AD34" s="78"/>
+      <c r="AE34" s="78"/>
+      <c r="AF34" s="78"/>
+      <c r="AG34" s="78"/>
+      <c r="AH34" s="78"/>
+      <c r="AI34" s="103"/>
+      <c r="AJ34" s="104"/>
+      <c r="AK34" s="78"/>
+      <c r="AL34" s="83"/>
+      <c r="AM34" s="83"/>
+      <c r="AN34" s="83"/>
+      <c r="AO34" s="83"/>
+      <c r="AP34" s="103"/>
+      <c r="AQ34" s="104"/>
+      <c r="AR34" s="78"/>
+      <c r="AS34" s="78"/>
+      <c r="AT34" s="78"/>
+      <c r="AU34" s="78"/>
+      <c r="AV34" s="78"/>
+      <c r="AW34" s="103"/>
+      <c r="AX34" s="104"/>
+      <c r="AY34" s="78"/>
+      <c r="AZ34" s="78"/>
+      <c r="BA34" s="78"/>
+      <c r="BB34" s="78"/>
+      <c r="BC34" s="78"/>
+      <c r="BD34" s="103"/>
+      <c r="BE34" s="104"/>
+      <c r="BF34" s="78"/>
+      <c r="BG34" s="78"/>
+      <c r="BH34" s="78"/>
+      <c r="BI34" s="78"/>
+      <c r="BJ34" s="107"/>
+      <c r="BK34" s="107"/>
+      <c r="BL34" s="107"/>
+      <c r="BM34" s="107"/>
+      <c r="BN34" s="107"/>
+      <c r="BO34" s="107"/>
+      <c r="BP34" s="107"/>
+      <c r="BQ34" s="107"/>
+      <c r="BR34" s="107"/>
+      <c r="BS34" s="107"/>
+      <c r="BT34" s="107"/>
+      <c r="BU34" s="107"/>
+      <c r="BV34" s="107"/>
+      <c r="BW34" s="107"/>
+      <c r="BX34" s="107"/>
+      <c r="BY34" s="107"/>
+      <c r="BZ34" s="107"/>
+      <c r="CA34" s="107"/>
+      <c r="CB34" s="107"/>
+      <c r="CC34" s="107"/>
+      <c r="CD34" s="107"/>
+      <c r="CE34" s="107"/>
+      <c r="CF34" s="107"/>
+      <c r="CG34" s="107"/>
+      <c r="CH34" s="107"/>
+      <c r="CI34" s="107"/>
+      <c r="CJ34" s="107"/>
+      <c r="CK34" s="107"/>
+      <c r="CL34" s="107"/>
+      <c r="CM34" s="107"/>
+      <c r="CN34" s="107"/>
+      <c r="CO34" s="107"/>
+      <c r="CP34" s="107"/>
+      <c r="CQ34" s="107"/>
+      <c r="CR34" s="107"/>
+      <c r="CS34" s="107"/>
+      <c r="CT34" s="107"/>
+      <c r="CU34" s="107"/>
+      <c r="CV34" s="107"/>
+      <c r="CW34" s="107"/>
+      <c r="CX34" s="78"/>
+      <c r="CY34" s="78"/>
+      <c r="CZ34" s="78"/>
+      <c r="DA34" s="122"/>
+      <c r="DB34" s="123"/>
     </row>
     <row r="35" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="118" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="119"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="78"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="86"/>
-      <c r="W35" s="78"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="78"/>
-      <c r="Z35" s="78"/>
-      <c r="AA35" s="78"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="86"/>
-      <c r="AD35" s="78"/>
-      <c r="AE35" s="78"/>
-      <c r="AF35" s="78"/>
-      <c r="AG35" s="78"/>
-      <c r="AH35" s="78"/>
-      <c r="AI35" s="85"/>
-      <c r="AJ35" s="86"/>
-      <c r="AK35" s="78"/>
-      <c r="AL35" s="108"/>
-      <c r="AM35" s="108"/>
-      <c r="AN35" s="108"/>
-      <c r="AO35" s="108"/>
-      <c r="AP35" s="85"/>
-      <c r="AQ35" s="86"/>
-      <c r="AR35" s="78"/>
-      <c r="AS35" s="78"/>
-      <c r="AT35" s="78"/>
-      <c r="AU35" s="78"/>
-      <c r="AV35" s="78"/>
-      <c r="AW35" s="85"/>
-      <c r="AX35" s="86"/>
-      <c r="AY35" s="109"/>
-      <c r="AZ35" s="109"/>
-      <c r="BA35" s="109"/>
-      <c r="BB35" s="109"/>
-      <c r="BC35" s="109"/>
-      <c r="BD35" s="85"/>
-      <c r="BE35" s="86"/>
-      <c r="BF35" s="109"/>
-      <c r="BG35" s="109"/>
-      <c r="BH35" s="109"/>
-      <c r="BI35" s="109"/>
-      <c r="BJ35" s="116"/>
-      <c r="BK35" s="116"/>
-      <c r="BL35" s="116"/>
-      <c r="BM35" s="116"/>
-      <c r="BN35" s="116"/>
-      <c r="BO35" s="116"/>
-      <c r="BP35" s="116"/>
-      <c r="BQ35" s="116"/>
-      <c r="BR35" s="116"/>
-      <c r="BS35" s="116"/>
-      <c r="BT35" s="116"/>
-      <c r="BU35" s="116"/>
-      <c r="BV35" s="116"/>
-      <c r="BW35" s="116"/>
-      <c r="BX35" s="116"/>
-      <c r="BY35" s="116"/>
-      <c r="BZ35" s="116"/>
-      <c r="CA35" s="116"/>
-      <c r="CB35" s="116"/>
-      <c r="CC35" s="116"/>
-      <c r="CD35" s="116"/>
-      <c r="CE35" s="116"/>
-      <c r="CF35" s="116"/>
-      <c r="CG35" s="116"/>
-      <c r="CH35" s="116"/>
-      <c r="CI35" s="116"/>
-      <c r="CJ35" s="116"/>
-      <c r="CK35" s="116"/>
-      <c r="CL35" s="116"/>
-      <c r="CM35" s="116"/>
-      <c r="CN35" s="116"/>
-      <c r="CO35" s="116"/>
-      <c r="CP35" s="116"/>
-      <c r="CQ35" s="116"/>
-      <c r="CR35" s="116"/>
-      <c r="CS35" s="116"/>
-      <c r="CT35" s="116"/>
-      <c r="CU35" s="116"/>
-      <c r="CV35" s="116"/>
-      <c r="CW35" s="116"/>
-      <c r="CX35" s="78"/>
-      <c r="CY35" s="78"/>
-      <c r="CZ35" s="78"/>
-      <c r="DA35" s="85"/>
-      <c r="DB35" s="107"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="93">
+        <f>BJ5</f>
+        <v>45387</v>
+      </c>
+      <c r="F35" s="94">
+        <f>BQ5</f>
+        <v>45394</v>
+      </c>
+      <c r="G35" s="96"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="103"/>
+      <c r="V35" s="104"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="103"/>
+      <c r="AC35" s="104"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="64"/>
+      <c r="AH35" s="64"/>
+      <c r="AI35" s="103"/>
+      <c r="AJ35" s="104"/>
+      <c r="AK35" s="64"/>
+      <c r="AL35" s="64"/>
+      <c r="AM35" s="64"/>
+      <c r="AN35" s="64"/>
+      <c r="AO35" s="64"/>
+      <c r="AP35" s="103"/>
+      <c r="AQ35" s="104"/>
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="64"/>
+      <c r="AT35" s="64"/>
+      <c r="AU35" s="64"/>
+      <c r="AV35" s="64"/>
+      <c r="AW35" s="103"/>
+      <c r="AX35" s="104"/>
+      <c r="AY35" s="64"/>
+      <c r="AZ35" s="64"/>
+      <c r="BA35" s="64"/>
+      <c r="BB35" s="64"/>
+      <c r="BC35" s="64"/>
+      <c r="BD35" s="103"/>
+      <c r="BE35" s="104"/>
+      <c r="BF35" s="64"/>
+      <c r="BG35" s="64"/>
+      <c r="BH35" s="64"/>
+      <c r="BI35" s="64"/>
+      <c r="BJ35" s="74"/>
+      <c r="BK35" s="101"/>
+      <c r="BL35" s="102"/>
+      <c r="BM35" s="98"/>
+      <c r="BN35" s="99"/>
+      <c r="BO35" s="99"/>
+      <c r="BP35" s="99"/>
+      <c r="BQ35" s="100"/>
+      <c r="BR35" s="101"/>
+      <c r="BS35" s="102"/>
+      <c r="BT35" s="64"/>
+      <c r="BU35" s="64"/>
+      <c r="BV35" s="64"/>
+      <c r="BW35" s="64"/>
+      <c r="BX35" s="64"/>
+      <c r="BY35" s="101"/>
+      <c r="BZ35" s="102"/>
+      <c r="CA35" s="73"/>
+      <c r="CB35" s="73"/>
+      <c r="CC35" s="73"/>
+      <c r="CD35" s="73"/>
+      <c r="CE35" s="73"/>
+      <c r="CF35" s="101"/>
+      <c r="CG35" s="102"/>
+      <c r="CH35" s="73"/>
+      <c r="CI35" s="73"/>
+      <c r="CJ35" s="73"/>
+      <c r="CK35" s="73"/>
+      <c r="CL35" s="73"/>
+      <c r="CM35" s="101"/>
+      <c r="CN35" s="102"/>
+      <c r="CO35" s="73"/>
+      <c r="CP35" s="73"/>
+      <c r="CQ35" s="73"/>
+      <c r="CR35" s="73"/>
+      <c r="CS35" s="73"/>
+      <c r="CT35" s="101"/>
+      <c r="CU35" s="102"/>
+      <c r="CV35" s="73"/>
+      <c r="CW35" s="73"/>
+      <c r="CX35" s="64"/>
+      <c r="CY35" s="64"/>
+      <c r="CZ35" s="64"/>
+      <c r="DA35" s="122"/>
+      <c r="DB35" s="123"/>
     </row>
     <row r="36" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29"/>
-      <c r="B36" s="122" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="123"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="125">
-        <f>BJ5</f>
-        <v>45387</v>
-      </c>
-      <c r="F36" s="126">
-        <f>BQ5</f>
-        <v>45394</v>
-      </c>
-      <c r="G36" s="114"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="105"/>
-      <c r="T36" s="105"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="86"/>
-      <c r="W36" s="105"/>
-      <c r="X36" s="105"/>
-      <c r="Y36" s="105"/>
-      <c r="Z36" s="105"/>
-      <c r="AA36" s="105"/>
-      <c r="AB36" s="85"/>
-      <c r="AC36" s="86"/>
-      <c r="AD36" s="105"/>
-      <c r="AE36" s="105"/>
-      <c r="AF36" s="105"/>
-      <c r="AG36" s="105"/>
-      <c r="AH36" s="105"/>
-      <c r="AI36" s="85"/>
-      <c r="AJ36" s="86"/>
-      <c r="AK36" s="105"/>
-      <c r="AL36" s="105"/>
-      <c r="AM36" s="105"/>
-      <c r="AN36" s="105"/>
-      <c r="AO36" s="105"/>
-      <c r="AP36" s="85"/>
-      <c r="AQ36" s="86"/>
-      <c r="AR36" s="105"/>
-      <c r="AS36" s="105"/>
-      <c r="AT36" s="105"/>
-      <c r="AU36" s="105"/>
-      <c r="AV36" s="105"/>
-      <c r="AW36" s="85"/>
-      <c r="AX36" s="86"/>
-      <c r="AY36" s="105"/>
-      <c r="AZ36" s="105"/>
-      <c r="BA36" s="105"/>
-      <c r="BB36" s="105"/>
-      <c r="BC36" s="105"/>
-      <c r="BD36" s="85"/>
-      <c r="BE36" s="86"/>
-      <c r="BF36" s="105"/>
-      <c r="BG36" s="105"/>
-      <c r="BH36" s="105"/>
-      <c r="BI36" s="105"/>
-      <c r="BJ36" s="74"/>
-      <c r="BK36" s="83"/>
-      <c r="BL36" s="84"/>
-      <c r="BM36" s="81"/>
-      <c r="BN36" s="89"/>
-      <c r="BO36" s="89"/>
-      <c r="BP36" s="89"/>
-      <c r="BQ36" s="82"/>
-      <c r="BR36" s="83"/>
-      <c r="BS36" s="84"/>
-      <c r="BT36" s="105"/>
-      <c r="BU36" s="105"/>
-      <c r="BV36" s="105"/>
-      <c r="BW36" s="105"/>
-      <c r="BX36" s="105"/>
-      <c r="BY36" s="83"/>
-      <c r="BZ36" s="84"/>
-      <c r="CA36" s="111"/>
-      <c r="CB36" s="111"/>
-      <c r="CC36" s="111"/>
-      <c r="CD36" s="111"/>
-      <c r="CE36" s="111"/>
-      <c r="CF36" s="83"/>
-      <c r="CG36" s="84"/>
-      <c r="CH36" s="111"/>
-      <c r="CI36" s="111"/>
-      <c r="CJ36" s="111"/>
-      <c r="CK36" s="111"/>
-      <c r="CL36" s="111"/>
-      <c r="CM36" s="83"/>
-      <c r="CN36" s="84"/>
-      <c r="CO36" s="111"/>
-      <c r="CP36" s="111"/>
-      <c r="CQ36" s="111"/>
-      <c r="CR36" s="111"/>
-      <c r="CS36" s="111"/>
-      <c r="CT36" s="83"/>
-      <c r="CU36" s="84"/>
-      <c r="CV36" s="111"/>
-      <c r="CW36" s="111"/>
-      <c r="CX36" s="105"/>
-      <c r="CY36" s="105"/>
-      <c r="CZ36" s="105"/>
-      <c r="DA36" s="85"/>
-      <c r="DB36" s="107"/>
+      <c r="B36" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="91"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="93">
+        <f>BT5</f>
+        <v>45397</v>
+      </c>
+      <c r="F36" s="94">
+        <f>CE5</f>
+        <v>45408</v>
+      </c>
+      <c r="G36" s="96"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="103"/>
+      <c r="V36" s="104"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="103"/>
+      <c r="AC36" s="104"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="64"/>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="64"/>
+      <c r="AH36" s="64"/>
+      <c r="AI36" s="103"/>
+      <c r="AJ36" s="104"/>
+      <c r="AK36" s="73"/>
+      <c r="AL36" s="64"/>
+      <c r="AM36" s="64"/>
+      <c r="AN36" s="64"/>
+      <c r="AO36" s="64"/>
+      <c r="AP36" s="103"/>
+      <c r="AQ36" s="104"/>
+      <c r="AR36" s="73"/>
+      <c r="AS36" s="64"/>
+      <c r="AT36" s="64"/>
+      <c r="AU36" s="64"/>
+      <c r="AV36" s="64"/>
+      <c r="AW36" s="103"/>
+      <c r="AX36" s="104"/>
+      <c r="AY36" s="64"/>
+      <c r="AZ36" s="64"/>
+      <c r="BA36" s="64"/>
+      <c r="BB36" s="64"/>
+      <c r="BC36" s="64"/>
+      <c r="BD36" s="103"/>
+      <c r="BE36" s="104"/>
+      <c r="BF36" s="73"/>
+      <c r="BG36" s="73"/>
+      <c r="BH36" s="64"/>
+      <c r="BI36" s="64"/>
+      <c r="BJ36" s="64"/>
+      <c r="BK36" s="103"/>
+      <c r="BL36" s="104"/>
+      <c r="BM36" s="73"/>
+      <c r="BN36" s="73"/>
+      <c r="BO36" s="64"/>
+      <c r="BP36" s="64"/>
+      <c r="BQ36" s="64"/>
+      <c r="BR36" s="103"/>
+      <c r="BS36" s="104"/>
+      <c r="BT36" s="98"/>
+      <c r="BU36" s="99"/>
+      <c r="BV36" s="99"/>
+      <c r="BW36" s="99"/>
+      <c r="BX36" s="100"/>
+      <c r="BY36" s="103"/>
+      <c r="BZ36" s="104"/>
+      <c r="CA36" s="98"/>
+      <c r="CB36" s="99"/>
+      <c r="CC36" s="99"/>
+      <c r="CD36" s="99"/>
+      <c r="CE36" s="100"/>
+      <c r="CF36" s="103"/>
+      <c r="CG36" s="104"/>
+      <c r="CH36" s="64"/>
+      <c r="CI36" s="73"/>
+      <c r="CJ36" s="73"/>
+      <c r="CK36" s="64"/>
+      <c r="CL36" s="64"/>
+      <c r="CM36" s="103"/>
+      <c r="CN36" s="104"/>
+      <c r="CO36" s="64"/>
+      <c r="CP36" s="73"/>
+      <c r="CQ36" s="64"/>
+      <c r="CR36" s="64"/>
+      <c r="CS36" s="64"/>
+      <c r="CT36" s="103"/>
+      <c r="CU36" s="104"/>
+      <c r="CV36" s="64"/>
+      <c r="CW36" s="64"/>
+      <c r="CX36" s="73"/>
+      <c r="CY36" s="73"/>
+      <c r="CZ36" s="64"/>
+      <c r="DA36" s="122"/>
+      <c r="DB36" s="123"/>
     </row>
     <row r="37" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
-      <c r="B37" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="123"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="125">
-        <f>BT5</f>
-        <v>45397</v>
-      </c>
-      <c r="F37" s="126">
-        <f>CE5</f>
-        <v>45408</v>
-      </c>
-      <c r="G37" s="114"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="86"/>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="105"/>
-      <c r="T37" s="105"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="86"/>
-      <c r="W37" s="105"/>
-      <c r="X37" s="105"/>
-      <c r="Y37" s="105"/>
-      <c r="Z37" s="105"/>
-      <c r="AA37" s="105"/>
-      <c r="AB37" s="85"/>
-      <c r="AC37" s="86"/>
-      <c r="AD37" s="105"/>
-      <c r="AE37" s="105"/>
-      <c r="AF37" s="105"/>
-      <c r="AG37" s="105"/>
-      <c r="AH37" s="105"/>
-      <c r="AI37" s="85"/>
-      <c r="AJ37" s="86"/>
-      <c r="AK37" s="111"/>
-      <c r="AL37" s="105"/>
-      <c r="AM37" s="105"/>
-      <c r="AN37" s="105"/>
-      <c r="AO37" s="105"/>
-      <c r="AP37" s="85"/>
-      <c r="AQ37" s="86"/>
-      <c r="AR37" s="111"/>
-      <c r="AS37" s="105"/>
-      <c r="AT37" s="105"/>
-      <c r="AU37" s="105"/>
-      <c r="AV37" s="105"/>
-      <c r="AW37" s="85"/>
-      <c r="AX37" s="86"/>
-      <c r="AY37" s="105"/>
-      <c r="AZ37" s="105"/>
-      <c r="BA37" s="105"/>
-      <c r="BB37" s="105"/>
-      <c r="BC37" s="105"/>
-      <c r="BD37" s="85"/>
-      <c r="BE37" s="86"/>
-      <c r="BF37" s="111"/>
-      <c r="BG37" s="111"/>
-      <c r="BH37" s="105"/>
-      <c r="BI37" s="105"/>
-      <c r="BJ37" s="105"/>
-      <c r="BK37" s="85"/>
-      <c r="BL37" s="86"/>
-      <c r="BM37" s="111"/>
-      <c r="BN37" s="111"/>
-      <c r="BO37" s="105"/>
-      <c r="BP37" s="105"/>
-      <c r="BQ37" s="105"/>
-      <c r="BR37" s="85"/>
-      <c r="BS37" s="86"/>
-      <c r="BT37" s="81"/>
-      <c r="BU37" s="89"/>
-      <c r="BV37" s="89"/>
-      <c r="BW37" s="89"/>
-      <c r="BX37" s="82"/>
-      <c r="BY37" s="85"/>
-      <c r="BZ37" s="86"/>
-      <c r="CA37" s="81"/>
-      <c r="CB37" s="89"/>
-      <c r="CC37" s="89"/>
-      <c r="CD37" s="89"/>
-      <c r="CE37" s="82"/>
-      <c r="CF37" s="85"/>
-      <c r="CG37" s="86"/>
-      <c r="CH37" s="105"/>
-      <c r="CI37" s="111"/>
-      <c r="CJ37" s="111"/>
-      <c r="CK37" s="105"/>
-      <c r="CL37" s="105"/>
-      <c r="CM37" s="85"/>
-      <c r="CN37" s="86"/>
-      <c r="CO37" s="105"/>
-      <c r="CP37" s="111"/>
-      <c r="CQ37" s="105"/>
-      <c r="CR37" s="105"/>
-      <c r="CS37" s="105"/>
-      <c r="CT37" s="85"/>
-      <c r="CU37" s="86"/>
-      <c r="CV37" s="105"/>
-      <c r="CW37" s="105"/>
-      <c r="CX37" s="111"/>
-      <c r="CY37" s="111"/>
-      <c r="CZ37" s="105"/>
-      <c r="DA37" s="85"/>
-      <c r="DB37" s="107"/>
+      <c r="B37" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="91"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="93">
+        <f>CH5</f>
+        <v>45411</v>
+      </c>
+      <c r="F37" s="94">
+        <f>CW5</f>
+        <v>45426</v>
+      </c>
+      <c r="G37" s="97"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="106"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="105"/>
+      <c r="V37" s="106"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="105"/>
+      <c r="AC37" s="106"/>
+      <c r="AD37" s="64"/>
+      <c r="AE37" s="64"/>
+      <c r="AF37" s="64"/>
+      <c r="AG37" s="64"/>
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="105"/>
+      <c r="AJ37" s="106"/>
+      <c r="AK37" s="73"/>
+      <c r="AL37" s="64"/>
+      <c r="AM37" s="64"/>
+      <c r="AN37" s="64"/>
+      <c r="AO37" s="64"/>
+      <c r="AP37" s="105"/>
+      <c r="AQ37" s="106"/>
+      <c r="AR37" s="73"/>
+      <c r="AS37" s="64"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="64"/>
+      <c r="AV37" s="64"/>
+      <c r="AW37" s="105"/>
+      <c r="AX37" s="106"/>
+      <c r="AY37" s="64"/>
+      <c r="AZ37" s="64"/>
+      <c r="BA37" s="64"/>
+      <c r="BB37" s="64"/>
+      <c r="BC37" s="64"/>
+      <c r="BD37" s="105"/>
+      <c r="BE37" s="106"/>
+      <c r="BF37" s="73"/>
+      <c r="BG37" s="73"/>
+      <c r="BH37" s="64"/>
+      <c r="BI37" s="64"/>
+      <c r="BJ37" s="64"/>
+      <c r="BK37" s="105"/>
+      <c r="BL37" s="106"/>
+      <c r="BM37" s="73"/>
+      <c r="BN37" s="73"/>
+      <c r="BO37" s="64"/>
+      <c r="BP37" s="64"/>
+      <c r="BQ37" s="64"/>
+      <c r="BR37" s="105"/>
+      <c r="BS37" s="106"/>
+      <c r="BT37" s="73"/>
+      <c r="BU37" s="64"/>
+      <c r="BV37" s="64"/>
+      <c r="BW37" s="64"/>
+      <c r="BX37" s="64"/>
+      <c r="BY37" s="105"/>
+      <c r="BZ37" s="106"/>
+      <c r="CA37" s="64"/>
+      <c r="CB37" s="73"/>
+      <c r="CC37" s="73"/>
+      <c r="CD37" s="64"/>
+      <c r="CE37" s="64"/>
+      <c r="CF37" s="105"/>
+      <c r="CG37" s="106"/>
+      <c r="CH37" s="98"/>
+      <c r="CI37" s="99"/>
+      <c r="CJ37" s="99"/>
+      <c r="CK37" s="99"/>
+      <c r="CL37" s="100"/>
+      <c r="CM37" s="105"/>
+      <c r="CN37" s="106"/>
+      <c r="CO37" s="98"/>
+      <c r="CP37" s="99"/>
+      <c r="CQ37" s="99"/>
+      <c r="CR37" s="99"/>
+      <c r="CS37" s="100"/>
+      <c r="CT37" s="105"/>
+      <c r="CU37" s="106"/>
+      <c r="CV37" s="98"/>
+      <c r="CW37" s="100"/>
+      <c r="CX37" s="73"/>
+      <c r="CY37" s="73"/>
+      <c r="CZ37" s="64"/>
+      <c r="DA37" s="124"/>
+      <c r="DB37" s="125"/>
     </row>
     <row r="38" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="123"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="125">
-        <f>CH5</f>
-        <v>45411</v>
-      </c>
-      <c r="F38" s="126">
-        <f>CW5</f>
-        <v>45426</v>
-      </c>
-      <c r="G38" s="115"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="105"/>
-      <c r="R38" s="105"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="105"/>
-      <c r="U38" s="87"/>
-      <c r="V38" s="88"/>
-      <c r="W38" s="105"/>
-      <c r="X38" s="105"/>
-      <c r="Y38" s="105"/>
-      <c r="Z38" s="105"/>
-      <c r="AA38" s="105"/>
-      <c r="AB38" s="87"/>
-      <c r="AC38" s="88"/>
-      <c r="AD38" s="105"/>
-      <c r="AE38" s="105"/>
-      <c r="AF38" s="105"/>
-      <c r="AG38" s="105"/>
-      <c r="AH38" s="105"/>
-      <c r="AI38" s="87"/>
-      <c r="AJ38" s="88"/>
-      <c r="AK38" s="111"/>
-      <c r="AL38" s="105"/>
-      <c r="AM38" s="105"/>
-      <c r="AN38" s="105"/>
-      <c r="AO38" s="105"/>
-      <c r="AP38" s="87"/>
-      <c r="AQ38" s="88"/>
-      <c r="AR38" s="111"/>
-      <c r="AS38" s="105"/>
-      <c r="AT38" s="105"/>
-      <c r="AU38" s="105"/>
-      <c r="AV38" s="105"/>
-      <c r="AW38" s="87"/>
-      <c r="AX38" s="88"/>
-      <c r="AY38" s="105"/>
-      <c r="AZ38" s="105"/>
-      <c r="BA38" s="105"/>
-      <c r="BB38" s="105"/>
-      <c r="BC38" s="105"/>
-      <c r="BD38" s="87"/>
-      <c r="BE38" s="88"/>
-      <c r="BF38" s="111"/>
-      <c r="BG38" s="111"/>
-      <c r="BH38" s="105"/>
-      <c r="BI38" s="105"/>
-      <c r="BJ38" s="105"/>
-      <c r="BK38" s="87"/>
-      <c r="BL38" s="88"/>
-      <c r="BM38" s="111"/>
-      <c r="BN38" s="111"/>
-      <c r="BO38" s="105"/>
-      <c r="BP38" s="105"/>
-      <c r="BQ38" s="105"/>
-      <c r="BR38" s="87"/>
-      <c r="BS38" s="88"/>
-      <c r="BT38" s="111"/>
-      <c r="BU38" s="105"/>
-      <c r="BV38" s="105"/>
-      <c r="BW38" s="105"/>
-      <c r="BX38" s="105"/>
-      <c r="BY38" s="87"/>
-      <c r="BZ38" s="88"/>
-      <c r="CA38" s="105"/>
-      <c r="CB38" s="111"/>
-      <c r="CC38" s="111"/>
-      <c r="CD38" s="105"/>
-      <c r="CE38" s="105"/>
-      <c r="CF38" s="87"/>
-      <c r="CG38" s="88"/>
-      <c r="CH38" s="81"/>
-      <c r="CI38" s="89"/>
-      <c r="CJ38" s="89"/>
-      <c r="CK38" s="89"/>
+      <c r="A38" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84" t="str">
+        <f t="shared" ref="H38" si="36">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <v/>
+      </c>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="82"/>
+      <c r="V38" s="82"/>
+      <c r="W38" s="82"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="82"/>
+      <c r="AA38" s="82"/>
+      <c r="AB38" s="82"/>
+      <c r="AC38" s="82"/>
+      <c r="AD38" s="82"/>
+      <c r="AE38" s="82"/>
+      <c r="AF38" s="82"/>
+      <c r="AG38" s="82"/>
+      <c r="AH38" s="82"/>
+      <c r="AI38" s="82"/>
+      <c r="AJ38" s="82"/>
+      <c r="AK38" s="82"/>
+      <c r="AL38" s="82"/>
+      <c r="AM38" s="82"/>
+      <c r="AN38" s="82"/>
+      <c r="AO38" s="82"/>
+      <c r="AP38" s="82"/>
+      <c r="AQ38" s="82"/>
+      <c r="AR38" s="82"/>
+      <c r="AS38" s="82"/>
+      <c r="AT38" s="82"/>
+      <c r="AU38" s="82"/>
+      <c r="AV38" s="82"/>
+      <c r="AW38" s="82"/>
+      <c r="AX38" s="82"/>
+      <c r="AY38" s="82"/>
+      <c r="AZ38" s="82"/>
+      <c r="BA38" s="82"/>
+      <c r="BB38" s="82"/>
+      <c r="BC38" s="82"/>
+      <c r="BD38" s="82"/>
+      <c r="BE38" s="82"/>
+      <c r="BF38" s="82"/>
+      <c r="BG38" s="82"/>
+      <c r="BH38" s="82"/>
+      <c r="BI38" s="82"/>
+      <c r="BJ38" s="82"/>
+      <c r="BK38" s="82"/>
+      <c r="BL38" s="82"/>
+      <c r="BM38" s="82"/>
+      <c r="BN38" s="82"/>
+      <c r="BO38" s="82"/>
+      <c r="BP38" s="82"/>
+      <c r="BQ38" s="82"/>
+      <c r="BR38" s="82"/>
+      <c r="BS38" s="82"/>
+      <c r="BT38" s="82"/>
+      <c r="BU38" s="82"/>
+      <c r="BV38" s="82"/>
+      <c r="BW38" s="82"/>
+      <c r="BX38" s="82"/>
+      <c r="BY38" s="82"/>
+      <c r="BZ38" s="82"/>
+      <c r="CA38" s="82"/>
+      <c r="CB38" s="82"/>
+      <c r="CC38" s="82"/>
+      <c r="CD38" s="82"/>
+      <c r="CE38" s="82"/>
+      <c r="CF38" s="82"/>
+      <c r="CG38" s="82"/>
+      <c r="CH38" s="82"/>
+      <c r="CI38" s="82"/>
+      <c r="CJ38" s="82"/>
+      <c r="CK38" s="82"/>
       <c r="CL38" s="82"/>
-      <c r="CM38" s="87"/>
-      <c r="CN38" s="88"/>
-      <c r="CO38" s="81"/>
-      <c r="CP38" s="89"/>
-      <c r="CQ38" s="89"/>
-      <c r="CR38" s="89"/>
+      <c r="CM38" s="82"/>
+      <c r="CN38" s="82"/>
+      <c r="CO38" s="82"/>
+      <c r="CP38" s="82"/>
+      <c r="CQ38" s="82"/>
+      <c r="CR38" s="82"/>
       <c r="CS38" s="82"/>
-      <c r="CT38" s="87"/>
-      <c r="CU38" s="88"/>
-      <c r="CV38" s="81"/>
+      <c r="CT38" s="82"/>
+      <c r="CU38" s="82"/>
+      <c r="CV38" s="82"/>
       <c r="CW38" s="82"/>
-      <c r="CX38" s="111"/>
-      <c r="CY38" s="111"/>
-      <c r="CZ38" s="105"/>
-      <c r="DA38" s="87"/>
-      <c r="DB38" s="112"/>
+      <c r="CX38" s="82"/>
+      <c r="CY38" s="82"/>
+      <c r="CZ38" s="82"/>
+      <c r="DA38" s="82"/>
+      <c r="DB38" s="82"/>
     </row>
-    <row r="39" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110" t="str">
-        <f t="shared" ref="H39" si="36">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
-        <v/>
-      </c>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="104"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="104"/>
-      <c r="S39" s="104"/>
-      <c r="T39" s="104"/>
-      <c r="U39" s="104"/>
-      <c r="V39" s="104"/>
-      <c r="W39" s="104"/>
-      <c r="X39" s="104"/>
-      <c r="Y39" s="104"/>
-      <c r="Z39" s="104"/>
-      <c r="AA39" s="104"/>
-      <c r="AB39" s="104"/>
-      <c r="AC39" s="104"/>
-      <c r="AD39" s="104"/>
-      <c r="AE39" s="104"/>
-      <c r="AF39" s="104"/>
-      <c r="AG39" s="104"/>
-      <c r="AH39" s="104"/>
-      <c r="AI39" s="104"/>
-      <c r="AJ39" s="104"/>
-      <c r="AK39" s="104"/>
-      <c r="AL39" s="104"/>
-      <c r="AM39" s="104"/>
-      <c r="AN39" s="104"/>
-      <c r="AO39" s="104"/>
-      <c r="AP39" s="104"/>
-      <c r="AQ39" s="104"/>
-      <c r="AR39" s="104"/>
-      <c r="AS39" s="104"/>
-      <c r="AT39" s="104"/>
-      <c r="AU39" s="104"/>
-      <c r="AV39" s="104"/>
-      <c r="AW39" s="104"/>
-      <c r="AX39" s="104"/>
-      <c r="AY39" s="104"/>
-      <c r="AZ39" s="104"/>
-      <c r="BA39" s="104"/>
-      <c r="BB39" s="104"/>
-      <c r="BC39" s="104"/>
-      <c r="BD39" s="104"/>
-      <c r="BE39" s="104"/>
-      <c r="BF39" s="104"/>
-      <c r="BG39" s="104"/>
-      <c r="BH39" s="104"/>
-      <c r="BI39" s="104"/>
-      <c r="BJ39" s="104"/>
-      <c r="BK39" s="104"/>
-      <c r="BL39" s="104"/>
-      <c r="BM39" s="104"/>
-      <c r="BN39" s="104"/>
-      <c r="BO39" s="104"/>
-      <c r="BP39" s="104"/>
-      <c r="BQ39" s="104"/>
-      <c r="BR39" s="104"/>
-      <c r="BS39" s="104"/>
-      <c r="BT39" s="104"/>
-      <c r="BU39" s="104"/>
-      <c r="BV39" s="104"/>
-      <c r="BW39" s="104"/>
-      <c r="BX39" s="104"/>
-      <c r="BY39" s="104"/>
-      <c r="BZ39" s="104"/>
-      <c r="CA39" s="104"/>
-      <c r="CB39" s="104"/>
-      <c r="CC39" s="104"/>
-      <c r="CD39" s="104"/>
-      <c r="CE39" s="104"/>
-      <c r="CF39" s="104"/>
-      <c r="CG39" s="104"/>
-      <c r="CH39" s="104"/>
-      <c r="CI39" s="104"/>
-      <c r="CJ39" s="104"/>
-      <c r="CK39" s="104"/>
-      <c r="CL39" s="104"/>
-      <c r="CM39" s="104"/>
-      <c r="CN39" s="104"/>
-      <c r="CO39" s="104"/>
-      <c r="CP39" s="104"/>
-      <c r="CQ39" s="104"/>
-      <c r="CR39" s="104"/>
-      <c r="CS39" s="104"/>
-      <c r="CT39" s="104"/>
-      <c r="CU39" s="104"/>
-      <c r="CV39" s="104"/>
-      <c r="CW39" s="104"/>
-      <c r="CX39" s="104"/>
-      <c r="CY39" s="104"/>
-      <c r="CZ39" s="104"/>
-      <c r="DA39" s="104"/>
-      <c r="DB39" s="104"/>
+    <row r="39" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="11"/>
-      <c r="F41" s="31"/>
-    </row>
-    <row r="42" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="12"/>
+      <c r="C41" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="G14:G20"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="BT37:BX37"/>
-    <mergeCell ref="CA37:CE37"/>
-    <mergeCell ref="CV38:CW38"/>
-    <mergeCell ref="CO38:CS38"/>
-    <mergeCell ref="CH38:CL38"/>
-    <mergeCell ref="N15:O38"/>
-    <mergeCell ref="U9:V38"/>
-    <mergeCell ref="AB8:AC38"/>
-    <mergeCell ref="AI22:AJ38"/>
-    <mergeCell ref="AP22:AQ38"/>
-    <mergeCell ref="AW22:AX38"/>
-    <mergeCell ref="BD30:BE38"/>
-    <mergeCell ref="BK36:BL38"/>
-    <mergeCell ref="BR36:BS38"/>
-    <mergeCell ref="BY36:BZ38"/>
-    <mergeCell ref="CF36:CG38"/>
-    <mergeCell ref="CM36:CN38"/>
-    <mergeCell ref="CT36:CU38"/>
-    <mergeCell ref="DA8:DB38"/>
-    <mergeCell ref="BM36:BQ36"/>
-    <mergeCell ref="BJ35:CW35"/>
-    <mergeCell ref="CT8:CU34"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="BD8:BE20"/>
-    <mergeCell ref="BK8:BL34"/>
-    <mergeCell ref="BR8:BS34"/>
-    <mergeCell ref="BY8:BZ34"/>
-    <mergeCell ref="CF8:CG34"/>
-    <mergeCell ref="CM8:CN34"/>
-    <mergeCell ref="BD22:BE28"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
+  <mergeCells count="62">
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AY29:BC29"/>
+    <mergeCell ref="U9:V37"/>
+    <mergeCell ref="N15:O37"/>
+    <mergeCell ref="AB8:AC37"/>
+    <mergeCell ref="AW22:AX37"/>
+    <mergeCell ref="AP22:AQ37"/>
+    <mergeCell ref="AI22:AJ37"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="AK4:AQ4"/>
@@ -7147,19 +6975,51 @@
     <mergeCell ref="H9:M9"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="M14:T14"/>
-    <mergeCell ref="AY29:BI29"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="N9:O13"/>
     <mergeCell ref="X13:AA13"/>
     <mergeCell ref="I8:AA8"/>
     <mergeCell ref="S12:T12"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="BD8:BE20"/>
+    <mergeCell ref="BD22:BE37"/>
+    <mergeCell ref="BM35:BQ35"/>
+    <mergeCell ref="BJ34:CW34"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="BK7:BL7"/>
+    <mergeCell ref="BK35:BL37"/>
+    <mergeCell ref="BR35:BS37"/>
+    <mergeCell ref="BY35:BZ37"/>
     <mergeCell ref="AE23:AH23"/>
     <mergeCell ref="AD22:AE22"/>
     <mergeCell ref="AL25:AM25"/>
     <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="BT36:BX36"/>
+    <mergeCell ref="CA36:CE36"/>
+    <mergeCell ref="CV37:CW37"/>
+    <mergeCell ref="CO37:CS37"/>
+    <mergeCell ref="CH37:CL37"/>
+    <mergeCell ref="CF35:CG37"/>
+    <mergeCell ref="CM35:CN37"/>
+    <mergeCell ref="CT35:CU37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="G14:G20"/>
+    <mergeCell ref="G8:G13"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D39">
+  <conditionalFormatting sqref="D7:D38">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7173,47 +7033,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL7 I39:BL39">
-    <cfRule type="expression" dxfId="8" priority="39">
+  <conditionalFormatting sqref="I5:BL6 I38:BL38 I7:BK7">
+    <cfRule type="expression" dxfId="3" priority="39">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:DB7 I39:DB39">
-    <cfRule type="expression" dxfId="7" priority="33">
+  <conditionalFormatting sqref="I7:BK7 I38:DB38 BM7:DB7">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM5:BS7 BM39:BS39">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="BM5:DB7 BM38:DB38">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT5:BZ7 BT39:BZ39">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND(TODAY()&gt;=BT$5,TODAY()&lt;BU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CA5:CG7 CA39:CG39">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;CB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH5:CN7 CH39:CN39">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(TODAY()&gt;=CH$5,TODAY()&lt;CI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CO5:CU7 CO39:CU39">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(TODAY()&gt;=CO$5,TODAY()&lt;CP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CV5:DB7 CV39:DB39">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(TODAY()&gt;=CV$5,TODAY()&lt;CW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -7232,7 +7067,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="16383" man="1"/>
+    <brk id="37" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="3" max="1048575" man="1"/>
@@ -7253,7 +7088,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D39</xm:sqref>
+          <xm:sqref>D7:D38</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7262,12 +7097,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7559,29 +7405,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7608,13 +7447,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>